--- a/mongodb/habitsai.xlsx
+++ b/mongodb/habitsai.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\OneDrive\Escritorio\Cheo\Desarrollo Web\HabitsAI\mongodb\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="18780" tabRatio="208"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="208"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -126,6 +131,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -453,19 +466,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,7 +508,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -525,7 +538,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -555,7 +568,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -585,7 +598,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -615,7 +628,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -645,7 +658,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -675,7 +688,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -705,7 +718,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -730,7 +743,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -760,7 +773,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -790,7 +803,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -820,7 +833,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -850,7 +863,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -880,7 +893,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -910,7 +923,7 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,7 +953,7 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -970,7 +983,7 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
@@ -1000,7 +1013,7 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
@@ -1030,7 +1043,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
@@ -1060,7 +1073,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
@@ -1090,7 +1103,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -1120,7 +1133,7 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
@@ -1150,7 +1163,7 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
@@ -1180,7 +1193,7 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
@@ -1210,7 +1223,7 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
@@ -1240,7 +1253,7 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
@@ -1270,7 +1283,7 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>9</v>
       </c>
@@ -1300,7 +1313,7 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -1330,7 +1343,7 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -1360,7 +1373,7 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -1390,7 +1403,7 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>4</v>
       </c>
@@ -1420,7 +1433,7 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>10</v>
       </c>
@@ -1450,7 +1463,7 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
@@ -1480,7 +1493,7 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -1510,7 +1523,7 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
@@ -1540,7 +1553,7 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>4</v>
       </c>
@@ -1570,7 +1583,7 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
@@ -1600,7 +1613,7 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>4</v>
       </c>
@@ -1630,7 +1643,7 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
@@ -1660,7 +1673,7 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>6</v>
       </c>
@@ -1690,7 +1703,7 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -1720,7 +1733,7 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>9</v>
       </c>
@@ -1750,7 +1763,7 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>9</v>
       </c>
@@ -1780,7 +1793,7 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
@@ -1810,7 +1823,7 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
@@ -1840,7 +1853,7 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>8</v>
       </c>
@@ -1870,7 +1883,7 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>4</v>
       </c>
@@ -1900,7 +1913,7 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>10</v>
       </c>
@@ -1930,7 +1943,7 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>10</v>
       </c>
@@ -1960,7 +1973,7 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>6</v>
       </c>
@@ -1990,7 +2003,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2012,7 +2025,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2034,7 +2047,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2056,7 +2069,7 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2078,7 +2091,7 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2100,7 +2113,7 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2122,7 +2135,7 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2144,7 +2157,7 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2166,7 +2179,7 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2188,7 +2201,7 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2210,7 +2223,7 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2232,7 +2245,7 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2254,7 +2267,7 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2276,7 +2289,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2298,7 +2311,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2320,7 +2333,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2342,7 +2355,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2364,7 +2377,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2386,7 +2399,7 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2408,7 +2421,7 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2430,7 +2443,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2452,7 +2465,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2474,7 +2487,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2496,7 +2509,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2518,7 +2531,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2540,7 +2553,7 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2562,7 +2575,7 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2584,7 +2597,7 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2606,7 +2619,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2628,7 +2641,7 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2650,7 +2663,7 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2672,7 +2685,7 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2694,7 +2707,7 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2716,7 +2729,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2738,7 +2751,7 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2760,7 +2773,7 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2782,7 +2795,7 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2804,7 +2817,7 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2826,7 +2839,7 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2848,7 +2861,7 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -2870,7 +2883,7 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -2892,7 +2905,7 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -2914,7 +2927,7 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -2936,7 +2949,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -2958,7 +2971,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96" spans="1:20">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -2980,7 +2993,7 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97" spans="1:20">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3002,7 +3015,7 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
-    <row r="98" spans="1:20">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3024,7 +3037,7 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3046,7 +3059,7 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
-    <row r="100" spans="1:20">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -3068,7 +3081,7 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
     </row>
-    <row r="101" spans="1:20">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -3090,7 +3103,7 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
     </row>
-    <row r="102" spans="1:20">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -3112,7 +3125,7 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
     </row>
-    <row r="103" spans="1:20">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -3134,7 +3147,7 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
     </row>
-    <row r="104" spans="1:20">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -3156,7 +3169,7 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
-    <row r="105" spans="1:20">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -3178,7 +3191,7 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
     </row>
-    <row r="106" spans="1:20">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -3200,7 +3213,7 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
     </row>
-    <row r="107" spans="1:20">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -3222,7 +3235,7 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
     </row>
-    <row r="108" spans="1:20">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -3244,7 +3257,7 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
     </row>
-    <row r="109" spans="1:20">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -3266,7 +3279,7 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
     </row>
-    <row r="110" spans="1:20">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -3288,7 +3301,7 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
     </row>
-    <row r="111" spans="1:20">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -3310,7 +3323,7 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
-    <row r="112" spans="1:20">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -3332,7 +3345,7 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
     </row>
-    <row r="113" spans="1:20">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -3354,7 +3367,7 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
-    <row r="114" spans="1:20">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -3376,7 +3389,7 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
     </row>
-    <row r="115" spans="1:20">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -3398,7 +3411,7 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
     </row>
-    <row r="116" spans="1:20">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -3420,7 +3433,7 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
     </row>
-    <row r="117" spans="1:20">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -3442,7 +3455,7 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
     </row>
-    <row r="118" spans="1:20">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -3464,7 +3477,7 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
     </row>
-    <row r="119" spans="1:20">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -3486,7 +3499,7 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
     </row>
-    <row r="120" spans="1:20">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -3508,7 +3521,7 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
     </row>
-    <row r="121" spans="1:20">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -3530,7 +3543,7 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
     </row>
-    <row r="122" spans="1:20">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -3552,7 +3565,7 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
     </row>
-    <row r="123" spans="1:20">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -3574,7 +3587,7 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
     </row>
-    <row r="124" spans="1:20">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -3596,7 +3609,7 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
     </row>
-    <row r="125" spans="1:20">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -3618,7 +3631,7 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
     </row>
-    <row r="126" spans="1:20">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -3640,7 +3653,7 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row r="127" spans="1:20">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -3662,7 +3675,7 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
     </row>
-    <row r="128" spans="1:20">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -3684,7 +3697,7 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
-    <row r="129" spans="1:20">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -3706,7 +3719,7 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
-    <row r="130" spans="1:20">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -3728,7 +3741,7 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
     </row>
-    <row r="131" spans="1:20">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -3750,7 +3763,7 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
     </row>
-    <row r="132" spans="1:20">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -3772,7 +3785,7 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
     </row>
-    <row r="133" spans="1:20">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -3794,7 +3807,7 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
     </row>
-    <row r="134" spans="1:20">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -3816,7 +3829,7 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
     </row>
-    <row r="135" spans="1:20">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -3838,7 +3851,7 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
     </row>
-    <row r="136" spans="1:20">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -3860,7 +3873,7 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
     </row>
-    <row r="137" spans="1:20">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -3882,7 +3895,7 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
     </row>
-    <row r="138" spans="1:20">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -3904,7 +3917,7 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
     </row>
-    <row r="139" spans="1:20">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -3926,7 +3939,7 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
     </row>
-    <row r="140" spans="1:20">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -3948,7 +3961,7 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
     </row>
-    <row r="141" spans="1:20">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -3970,7 +3983,7 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
     </row>
-    <row r="142" spans="1:20">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -3992,7 +4005,7 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
     </row>
-    <row r="143" spans="1:20">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -4014,7 +4027,7 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
     </row>
-    <row r="144" spans="1:20">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -4036,7 +4049,7 @@
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
     </row>
-    <row r="145" spans="1:20">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -4058,7 +4071,7 @@
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
     </row>
-    <row r="146" spans="1:20">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -4080,7 +4093,7 @@
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
     </row>
-    <row r="147" spans="1:20">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -4102,7 +4115,7 @@
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
     </row>
-    <row r="148" spans="1:20">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -4124,7 +4137,7 @@
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
     </row>
-    <row r="149" spans="1:20">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -4146,7 +4159,7 @@
       <c r="S149" s="1"/>
       <c r="T149" s="1"/>
     </row>
-    <row r="150" spans="1:20">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -4168,7 +4181,7 @@
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
     </row>
-    <row r="151" spans="1:20">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -4190,7 +4203,7 @@
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
     </row>
-    <row r="152" spans="1:20">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -4212,7 +4225,7 @@
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
     </row>
-    <row r="153" spans="1:20">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -4234,7 +4247,7 @@
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
     </row>
-    <row r="154" spans="1:20">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -4256,7 +4269,7 @@
       <c r="S154" s="1"/>
       <c r="T154" s="1"/>
     </row>
-    <row r="155" spans="1:20">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -4278,7 +4291,7 @@
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
     </row>
-    <row r="156" spans="1:20">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -4300,7 +4313,7 @@
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
     </row>
-    <row r="157" spans="1:20">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -4322,7 +4335,7 @@
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
     </row>
-    <row r="158" spans="1:20">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -4344,7 +4357,7 @@
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
     </row>
-    <row r="159" spans="1:20">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -4366,7 +4379,7 @@
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
     </row>
-    <row r="160" spans="1:20">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -4388,7 +4401,7 @@
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
     </row>
-    <row r="161" spans="1:20">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -4410,7 +4423,7 @@
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
     </row>
-    <row r="162" spans="1:20">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -4432,7 +4445,7 @@
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
     </row>
-    <row r="163" spans="1:20">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -4454,7 +4467,7 @@
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
     </row>
-    <row r="164" spans="1:20">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -4476,7 +4489,7 @@
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
     </row>
-    <row r="165" spans="1:20">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -4498,7 +4511,7 @@
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
     </row>
-    <row r="166" spans="1:20">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -4520,7 +4533,7 @@
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
     </row>
-    <row r="167" spans="1:20">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -4542,7 +4555,7 @@
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
     </row>
-    <row r="168" spans="1:20">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -4564,7 +4577,7 @@
       <c r="S168" s="1"/>
       <c r="T168" s="1"/>
     </row>
-    <row r="169" spans="1:20">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -4586,7 +4599,7 @@
       <c r="S169" s="1"/>
       <c r="T169" s="1"/>
     </row>
-    <row r="170" spans="1:20">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -4608,7 +4621,7 @@
       <c r="S170" s="1"/>
       <c r="T170" s="1"/>
     </row>
-    <row r="171" spans="1:20">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -4630,7 +4643,7 @@
       <c r="S171" s="1"/>
       <c r="T171" s="1"/>
     </row>
-    <row r="172" spans="1:20">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -4652,7 +4665,7 @@
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
     </row>
-    <row r="173" spans="1:20">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -4674,7 +4687,7 @@
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
     </row>
-    <row r="174" spans="1:20">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -4696,7 +4709,7 @@
       <c r="S174" s="1"/>
       <c r="T174" s="1"/>
     </row>
-    <row r="175" spans="1:20">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -4718,7 +4731,7 @@
       <c r="S175" s="1"/>
       <c r="T175" s="1"/>
     </row>
-    <row r="176" spans="1:20">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -4740,7 +4753,7 @@
       <c r="S176" s="1"/>
       <c r="T176" s="1"/>
     </row>
-    <row r="177" spans="1:20">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -4762,7 +4775,7 @@
       <c r="S177" s="1"/>
       <c r="T177" s="1"/>
     </row>
-    <row r="178" spans="1:20">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -4784,7 +4797,7 @@
       <c r="S178" s="1"/>
       <c r="T178" s="1"/>
     </row>
-    <row r="179" spans="1:20">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -4806,7 +4819,7 @@
       <c r="S179" s="1"/>
       <c r="T179" s="1"/>
     </row>
-    <row r="180" spans="1:20">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -4828,7 +4841,7 @@
       <c r="S180" s="1"/>
       <c r="T180" s="1"/>
     </row>
-    <row r="181" spans="1:20">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -4850,7 +4863,7 @@
       <c r="S181" s="1"/>
       <c r="T181" s="1"/>
     </row>
-    <row r="182" spans="1:20">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -4872,7 +4885,7 @@
       <c r="S182" s="1"/>
       <c r="T182" s="1"/>
     </row>
-    <row r="183" spans="1:20">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -4894,7 +4907,7 @@
       <c r="S183" s="1"/>
       <c r="T183" s="1"/>
     </row>
-    <row r="184" spans="1:20">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -4916,7 +4929,7 @@
       <c r="S184" s="1"/>
       <c r="T184" s="1"/>
     </row>
-    <row r="185" spans="1:20">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -4938,7 +4951,7 @@
       <c r="S185" s="1"/>
       <c r="T185" s="1"/>
     </row>
-    <row r="186" spans="1:20">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -4960,7 +4973,7 @@
       <c r="S186" s="1"/>
       <c r="T186" s="1"/>
     </row>
-    <row r="187" spans="1:20">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -4982,7 +4995,7 @@
       <c r="S187" s="1"/>
       <c r="T187" s="1"/>
     </row>
-    <row r="188" spans="1:20">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -5004,7 +5017,7 @@
       <c r="S188" s="1"/>
       <c r="T188" s="1"/>
     </row>
-    <row r="189" spans="1:20">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -5026,7 +5039,7 @@
       <c r="S189" s="1"/>
       <c r="T189" s="1"/>
     </row>
-    <row r="190" spans="1:20">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -5048,7 +5061,7 @@
       <c r="S190" s="1"/>
       <c r="T190" s="1"/>
     </row>
-    <row r="191" spans="1:20">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -5070,7 +5083,7 @@
       <c r="S191" s="1"/>
       <c r="T191" s="1"/>
     </row>
-    <row r="192" spans="1:20">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -5092,7 +5105,7 @@
       <c r="S192" s="1"/>
       <c r="T192" s="1"/>
     </row>
-    <row r="193" spans="1:20">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -5114,7 +5127,7 @@
       <c r="S193" s="1"/>
       <c r="T193" s="1"/>
     </row>
-    <row r="194" spans="1:20">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -5136,7 +5149,7 @@
       <c r="S194" s="1"/>
       <c r="T194" s="1"/>
     </row>
-    <row r="195" spans="1:20">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -5158,7 +5171,7 @@
       <c r="S195" s="1"/>
       <c r="T195" s="1"/>
     </row>
-    <row r="196" spans="1:20">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -5180,7 +5193,7 @@
       <c r="S196" s="1"/>
       <c r="T196" s="1"/>
     </row>
-    <row r="197" spans="1:20">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -5202,7 +5215,7 @@
       <c r="S197" s="1"/>
       <c r="T197" s="1"/>
     </row>
-    <row r="198" spans="1:20">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -5224,7 +5237,7 @@
       <c r="S198" s="1"/>
       <c r="T198" s="1"/>
     </row>
-    <row r="199" spans="1:20">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -5246,7 +5259,7 @@
       <c r="S199" s="1"/>
       <c r="T199" s="1"/>
     </row>
-    <row r="200" spans="1:20">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -5268,7 +5281,7 @@
       <c r="S200" s="1"/>
       <c r="T200" s="1"/>
     </row>
-    <row r="201" spans="1:20">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -5290,7 +5303,7 @@
       <c r="S201" s="1"/>
       <c r="T201" s="1"/>
     </row>
-    <row r="202" spans="1:20">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -5312,7 +5325,7 @@
       <c r="S202" s="1"/>
       <c r="T202" s="1"/>
     </row>
-    <row r="203" spans="1:20">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -5334,7 +5347,7 @@
       <c r="S203" s="1"/>
       <c r="T203" s="1"/>
     </row>
-    <row r="204" spans="1:20">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -5356,7 +5369,7 @@
       <c r="S204" s="1"/>
       <c r="T204" s="1"/>
     </row>
-    <row r="205" spans="1:20">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -5378,7 +5391,7 @@
       <c r="S205" s="1"/>
       <c r="T205" s="1"/>
     </row>
-    <row r="206" spans="1:20">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -5400,7 +5413,7 @@
       <c r="S206" s="1"/>
       <c r="T206" s="1"/>
     </row>
-    <row r="207" spans="1:20">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -5422,7 +5435,7 @@
       <c r="S207" s="1"/>
       <c r="T207" s="1"/>
     </row>
-    <row r="208" spans="1:20">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -5444,7 +5457,7 @@
       <c r="S208" s="1"/>
       <c r="T208" s="1"/>
     </row>
-    <row r="209" spans="1:20">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -5466,7 +5479,7 @@
       <c r="S209" s="1"/>
       <c r="T209" s="1"/>
     </row>
-    <row r="210" spans="1:20">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -5488,7 +5501,7 @@
       <c r="S210" s="1"/>
       <c r="T210" s="1"/>
     </row>
-    <row r="211" spans="1:20">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -5510,7 +5523,7 @@
       <c r="S211" s="1"/>
       <c r="T211" s="1"/>
     </row>
-    <row r="212" spans="1:20">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -5532,7 +5545,7 @@
       <c r="S212" s="1"/>
       <c r="T212" s="1"/>
     </row>
-    <row r="213" spans="1:20">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -5554,7 +5567,7 @@
       <c r="S213" s="1"/>
       <c r="T213" s="1"/>
     </row>
-    <row r="214" spans="1:20">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -5576,7 +5589,7 @@
       <c r="S214" s="1"/>
       <c r="T214" s="1"/>
     </row>
-    <row r="215" spans="1:20">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -5598,7 +5611,7 @@
       <c r="S215" s="1"/>
       <c r="T215" s="1"/>
     </row>
-    <row r="216" spans="1:20">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -5620,7 +5633,7 @@
       <c r="S216" s="1"/>
       <c r="T216" s="1"/>
     </row>
-    <row r="217" spans="1:20">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -5642,7 +5655,7 @@
       <c r="S217" s="1"/>
       <c r="T217" s="1"/>
     </row>
-    <row r="218" spans="1:20">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -5664,7 +5677,7 @@
       <c r="S218" s="1"/>
       <c r="T218" s="1"/>
     </row>
-    <row r="219" spans="1:20">
+    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -5686,7 +5699,7 @@
       <c r="S219" s="1"/>
       <c r="T219" s="1"/>
     </row>
-    <row r="220" spans="1:20">
+    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -5708,7 +5721,7 @@
       <c r="S220" s="1"/>
       <c r="T220" s="1"/>
     </row>
-    <row r="221" spans="1:20">
+    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -5730,7 +5743,7 @@
       <c r="S221" s="1"/>
       <c r="T221" s="1"/>
     </row>
-    <row r="222" spans="1:20">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -5752,7 +5765,7 @@
       <c r="S222" s="1"/>
       <c r="T222" s="1"/>
     </row>
-    <row r="223" spans="1:20">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -5774,7 +5787,7 @@
       <c r="S223" s="1"/>
       <c r="T223" s="1"/>
     </row>
-    <row r="224" spans="1:20">
+    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -5796,7 +5809,7 @@
       <c r="S224" s="1"/>
       <c r="T224" s="1"/>
     </row>
-    <row r="225" spans="1:20">
+    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -5818,7 +5831,7 @@
       <c r="S225" s="1"/>
       <c r="T225" s="1"/>
     </row>
-    <row r="226" spans="1:20">
+    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -5840,7 +5853,7 @@
       <c r="S226" s="1"/>
       <c r="T226" s="1"/>
     </row>
-    <row r="227" spans="1:20">
+    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -5862,7 +5875,7 @@
       <c r="S227" s="1"/>
       <c r="T227" s="1"/>
     </row>
-    <row r="228" spans="1:20">
+    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -5884,7 +5897,7 @@
       <c r="S228" s="1"/>
       <c r="T228" s="1"/>
     </row>
-    <row r="229" spans="1:20">
+    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -5906,7 +5919,7 @@
       <c r="S229" s="1"/>
       <c r="T229" s="1"/>
     </row>
-    <row r="230" spans="1:20">
+    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -5928,7 +5941,7 @@
       <c r="S230" s="1"/>
       <c r="T230" s="1"/>
     </row>
-    <row r="231" spans="1:20">
+    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -5950,7 +5963,7 @@
       <c r="S231" s="1"/>
       <c r="T231" s="1"/>
     </row>
-    <row r="232" spans="1:20">
+    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -5972,7 +5985,7 @@
       <c r="S232" s="1"/>
       <c r="T232" s="1"/>
     </row>
-    <row r="233" spans="1:20">
+    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -5994,7 +6007,7 @@
       <c r="S233" s="1"/>
       <c r="T233" s="1"/>
     </row>
-    <row r="234" spans="1:20">
+    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -6016,7 +6029,7 @@
       <c r="S234" s="1"/>
       <c r="T234" s="1"/>
     </row>
-    <row r="235" spans="1:20">
+    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -6038,7 +6051,7 @@
       <c r="S235" s="1"/>
       <c r="T235" s="1"/>
     </row>
-    <row r="236" spans="1:20">
+    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -6060,7 +6073,7 @@
       <c r="S236" s="1"/>
       <c r="T236" s="1"/>
     </row>
-    <row r="237" spans="1:20">
+    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -6082,7 +6095,7 @@
       <c r="S237" s="1"/>
       <c r="T237" s="1"/>
     </row>
-    <row r="238" spans="1:20">
+    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -6104,7 +6117,7 @@
       <c r="S238" s="1"/>
       <c r="T238" s="1"/>
     </row>
-    <row r="239" spans="1:20">
+    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -6126,7 +6139,7 @@
       <c r="S239" s="1"/>
       <c r="T239" s="1"/>
     </row>
-    <row r="240" spans="1:20">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -6148,7 +6161,7 @@
       <c r="S240" s="1"/>
       <c r="T240" s="1"/>
     </row>
-    <row r="241" spans="1:20">
+    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -6170,7 +6183,7 @@
       <c r="S241" s="1"/>
       <c r="T241" s="1"/>
     </row>
-    <row r="242" spans="1:20">
+    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -6192,7 +6205,7 @@
       <c r="S242" s="1"/>
       <c r="T242" s="1"/>
     </row>
-    <row r="243" spans="1:20">
+    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -6214,7 +6227,7 @@
       <c r="S243" s="1"/>
       <c r="T243" s="1"/>
     </row>
-    <row r="244" spans="1:20">
+    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -6236,7 +6249,7 @@
       <c r="S244" s="1"/>
       <c r="T244" s="1"/>
     </row>
-    <row r="245" spans="1:20">
+    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -6258,7 +6271,7 @@
       <c r="S245" s="1"/>
       <c r="T245" s="1"/>
     </row>
-    <row r="246" spans="1:20">
+    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -6280,7 +6293,7 @@
       <c r="S246" s="1"/>
       <c r="T246" s="1"/>
     </row>
-    <row r="247" spans="1:20">
+    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -6302,7 +6315,7 @@
       <c r="S247" s="1"/>
       <c r="T247" s="1"/>
     </row>
-    <row r="248" spans="1:20">
+    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -6324,7 +6337,7 @@
       <c r="S248" s="1"/>
       <c r="T248" s="1"/>
     </row>
-    <row r="249" spans="1:20">
+    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -6346,7 +6359,7 @@
       <c r="S249" s="1"/>
       <c r="T249" s="1"/>
     </row>
-    <row r="250" spans="1:20">
+    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -6368,7 +6381,7 @@
       <c r="S250" s="1"/>
       <c r="T250" s="1"/>
     </row>
-    <row r="251" spans="1:20">
+    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -6390,7 +6403,7 @@
       <c r="S251" s="1"/>
       <c r="T251" s="1"/>
     </row>
-    <row r="252" spans="1:20">
+    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -6412,7 +6425,7 @@
       <c r="S252" s="1"/>
       <c r="T252" s="1"/>
     </row>
-    <row r="253" spans="1:20">
+    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -6434,7 +6447,7 @@
       <c r="S253" s="1"/>
       <c r="T253" s="1"/>
     </row>
-    <row r="254" spans="1:20">
+    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -6456,7 +6469,7 @@
       <c r="S254" s="1"/>
       <c r="T254" s="1"/>
     </row>
-    <row r="255" spans="1:20">
+    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -6478,7 +6491,7 @@
       <c r="S255" s="1"/>
       <c r="T255" s="1"/>
     </row>
-    <row r="256" spans="1:20">
+    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -6500,7 +6513,7 @@
       <c r="S256" s="1"/>
       <c r="T256" s="1"/>
     </row>
-    <row r="257" spans="1:20">
+    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -6522,7 +6535,7 @@
       <c r="S257" s="1"/>
       <c r="T257" s="1"/>
     </row>
-    <row r="258" spans="1:20">
+    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -6544,7 +6557,7 @@
       <c r="S258" s="1"/>
       <c r="T258" s="1"/>
     </row>
-    <row r="259" spans="1:20">
+    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -6566,7 +6579,7 @@
       <c r="S259" s="1"/>
       <c r="T259" s="1"/>
     </row>
-    <row r="260" spans="1:20">
+    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -6588,7 +6601,7 @@
       <c r="S260" s="1"/>
       <c r="T260" s="1"/>
     </row>
-    <row r="261" spans="1:20">
+    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -6610,7 +6623,7 @@
       <c r="S261" s="1"/>
       <c r="T261" s="1"/>
     </row>
-    <row r="262" spans="1:20">
+    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -6632,7 +6645,7 @@
       <c r="S262" s="1"/>
       <c r="T262" s="1"/>
     </row>
-    <row r="263" spans="1:20">
+    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -6654,7 +6667,7 @@
       <c r="S263" s="1"/>
       <c r="T263" s="1"/>
     </row>
-    <row r="264" spans="1:20">
+    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -6676,7 +6689,7 @@
       <c r="S264" s="1"/>
       <c r="T264" s="1"/>
     </row>
-    <row r="265" spans="1:20">
+    <row r="265" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -6698,7 +6711,7 @@
       <c r="S265" s="1"/>
       <c r="T265" s="1"/>
     </row>
-    <row r="266" spans="1:20">
+    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -6720,7 +6733,7 @@
       <c r="S266" s="1"/>
       <c r="T266" s="1"/>
     </row>
-    <row r="267" spans="1:20">
+    <row r="267" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -6742,7 +6755,7 @@
       <c r="S267" s="1"/>
       <c r="T267" s="1"/>
     </row>
-    <row r="268" spans="1:20">
+    <row r="268" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -6764,7 +6777,7 @@
       <c r="S268" s="1"/>
       <c r="T268" s="1"/>
     </row>
-    <row r="269" spans="1:20">
+    <row r="269" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -6786,7 +6799,7 @@
       <c r="S269" s="1"/>
       <c r="T269" s="1"/>
     </row>
-    <row r="270" spans="1:20">
+    <row r="270" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -6808,7 +6821,7 @@
       <c r="S270" s="1"/>
       <c r="T270" s="1"/>
     </row>
-    <row r="271" spans="1:20">
+    <row r="271" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -6830,7 +6843,7 @@
       <c r="S271" s="1"/>
       <c r="T271" s="1"/>
     </row>
-    <row r="272" spans="1:20">
+    <row r="272" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -6852,7 +6865,7 @@
       <c r="S272" s="1"/>
       <c r="T272" s="1"/>
     </row>
-    <row r="273" spans="1:20">
+    <row r="273" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -6874,7 +6887,7 @@
       <c r="S273" s="1"/>
       <c r="T273" s="1"/>
     </row>
-    <row r="274" spans="1:20">
+    <row r="274" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -6896,7 +6909,7 @@
       <c r="S274" s="1"/>
       <c r="T274" s="1"/>
     </row>
-    <row r="275" spans="1:20">
+    <row r="275" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -6918,7 +6931,7 @@
       <c r="S275" s="1"/>
       <c r="T275" s="1"/>
     </row>
-    <row r="276" spans="1:20">
+    <row r="276" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -6940,7 +6953,7 @@
       <c r="S276" s="1"/>
       <c r="T276" s="1"/>
     </row>
-    <row r="277" spans="1:20">
+    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -6962,7 +6975,7 @@
       <c r="S277" s="1"/>
       <c r="T277" s="1"/>
     </row>
-    <row r="278" spans="1:20">
+    <row r="278" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -6984,7 +6997,7 @@
       <c r="S278" s="1"/>
       <c r="T278" s="1"/>
     </row>
-    <row r="279" spans="1:20">
+    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -7006,7 +7019,7 @@
       <c r="S279" s="1"/>
       <c r="T279" s="1"/>
     </row>
-    <row r="280" spans="1:20">
+    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -7028,7 +7041,7 @@
       <c r="S280" s="1"/>
       <c r="T280" s="1"/>
     </row>
-    <row r="281" spans="1:20">
+    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -7050,7 +7063,7 @@
       <c r="S281" s="1"/>
       <c r="T281" s="1"/>
     </row>
-    <row r="282" spans="1:20">
+    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -7072,7 +7085,7 @@
       <c r="S282" s="1"/>
       <c r="T282" s="1"/>
     </row>
-    <row r="283" spans="1:20">
+    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -7094,7 +7107,7 @@
       <c r="S283" s="1"/>
       <c r="T283" s="1"/>
     </row>
-    <row r="284" spans="1:20">
+    <row r="284" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -7116,7 +7129,7 @@
       <c r="S284" s="1"/>
       <c r="T284" s="1"/>
     </row>
-    <row r="285" spans="1:20">
+    <row r="285" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -7138,7 +7151,7 @@
       <c r="S285" s="1"/>
       <c r="T285" s="1"/>
     </row>
-    <row r="286" spans="1:20">
+    <row r="286" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -7160,7 +7173,7 @@
       <c r="S286" s="1"/>
       <c r="T286" s="1"/>
     </row>
-    <row r="287" spans="1:20">
+    <row r="287" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -7182,7 +7195,7 @@
       <c r="S287" s="1"/>
       <c r="T287" s="1"/>
     </row>
-    <row r="288" spans="1:20">
+    <row r="288" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -7204,7 +7217,7 @@
       <c r="S288" s="1"/>
       <c r="T288" s="1"/>
     </row>
-    <row r="289" spans="1:20">
+    <row r="289" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -7226,7 +7239,7 @@
       <c r="S289" s="1"/>
       <c r="T289" s="1"/>
     </row>
-    <row r="290" spans="1:20">
+    <row r="290" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -7248,7 +7261,7 @@
       <c r="S290" s="1"/>
       <c r="T290" s="1"/>
     </row>
-    <row r="291" spans="1:20">
+    <row r="291" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -7270,7 +7283,7 @@
       <c r="S291" s="1"/>
       <c r="T291" s="1"/>
     </row>
-    <row r="292" spans="1:20">
+    <row r="292" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -7292,7 +7305,7 @@
       <c r="S292" s="1"/>
       <c r="T292" s="1"/>
     </row>
-    <row r="293" spans="1:20">
+    <row r="293" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -7314,7 +7327,7 @@
       <c r="S293" s="1"/>
       <c r="T293" s="1"/>
     </row>
-    <row r="294" spans="1:20">
+    <row r="294" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -7336,7 +7349,7 @@
       <c r="S294" s="1"/>
       <c r="T294" s="1"/>
     </row>
-    <row r="295" spans="1:20">
+    <row r="295" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -7358,7 +7371,7 @@
       <c r="S295" s="1"/>
       <c r="T295" s="1"/>
     </row>
-    <row r="296" spans="1:20">
+    <row r="296" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -7380,7 +7393,7 @@
       <c r="S296" s="1"/>
       <c r="T296" s="1"/>
     </row>
-    <row r="297" spans="1:20">
+    <row r="297" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -7402,7 +7415,7 @@
       <c r="S297" s="1"/>
       <c r="T297" s="1"/>
     </row>
-    <row r="298" spans="1:20">
+    <row r="298" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -7424,7 +7437,7 @@
       <c r="S298" s="1"/>
       <c r="T298" s="1"/>
     </row>
-    <row r="299" spans="1:20">
+    <row r="299" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -7446,7 +7459,7 @@
       <c r="S299" s="1"/>
       <c r="T299" s="1"/>
     </row>
-    <row r="300" spans="1:20">
+    <row r="300" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -7468,7 +7481,7 @@
       <c r="S300" s="1"/>
       <c r="T300" s="1"/>
     </row>
-    <row r="301" spans="1:20">
+    <row r="301" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -7490,7 +7503,7 @@
       <c r="S301" s="1"/>
       <c r="T301" s="1"/>
     </row>
-    <row r="302" spans="1:20">
+    <row r="302" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -7512,7 +7525,7 @@
       <c r="S302" s="1"/>
       <c r="T302" s="1"/>
     </row>
-    <row r="303" spans="1:20">
+    <row r="303" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -7534,7 +7547,7 @@
       <c r="S303" s="1"/>
       <c r="T303" s="1"/>
     </row>
-    <row r="304" spans="1:20">
+    <row r="304" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -7556,7 +7569,7 @@
       <c r="S304" s="1"/>
       <c r="T304" s="1"/>
     </row>
-    <row r="305" spans="1:20">
+    <row r="305" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -7578,7 +7591,7 @@
       <c r="S305" s="1"/>
       <c r="T305" s="1"/>
     </row>
-    <row r="306" spans="1:20">
+    <row r="306" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -7600,7 +7613,7 @@
       <c r="S306" s="1"/>
       <c r="T306" s="1"/>
     </row>
-    <row r="307" spans="1:20">
+    <row r="307" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -7622,7 +7635,7 @@
       <c r="S307" s="1"/>
       <c r="T307" s="1"/>
     </row>
-    <row r="308" spans="1:20">
+    <row r="308" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -7644,7 +7657,7 @@
       <c r="S308" s="1"/>
       <c r="T308" s="1"/>
     </row>
-    <row r="309" spans="1:20">
+    <row r="309" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -7666,7 +7679,7 @@
       <c r="S309" s="1"/>
       <c r="T309" s="1"/>
     </row>
-    <row r="310" spans="1:20">
+    <row r="310" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -7688,7 +7701,7 @@
       <c r="S310" s="1"/>
       <c r="T310" s="1"/>
     </row>
-    <row r="311" spans="1:20">
+    <row r="311" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -7710,7 +7723,7 @@
       <c r="S311" s="1"/>
       <c r="T311" s="1"/>
     </row>
-    <row r="312" spans="1:20">
+    <row r="312" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -7732,7 +7745,7 @@
       <c r="S312" s="1"/>
       <c r="T312" s="1"/>
     </row>
-    <row r="313" spans="1:20">
+    <row r="313" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -7754,7 +7767,7 @@
       <c r="S313" s="1"/>
       <c r="T313" s="1"/>
     </row>
-    <row r="314" spans="1:20">
+    <row r="314" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -7776,7 +7789,7 @@
       <c r="S314" s="1"/>
       <c r="T314" s="1"/>
     </row>
-    <row r="315" spans="1:20">
+    <row r="315" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -7798,7 +7811,7 @@
       <c r="S315" s="1"/>
       <c r="T315" s="1"/>
     </row>
-    <row r="316" spans="1:20">
+    <row r="316" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -7820,7 +7833,7 @@
       <c r="S316" s="1"/>
       <c r="T316" s="1"/>
     </row>
-    <row r="317" spans="1:20">
+    <row r="317" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -7842,7 +7855,7 @@
       <c r="S317" s="1"/>
       <c r="T317" s="1"/>
     </row>
-    <row r="318" spans="1:20">
+    <row r="318" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -7864,7 +7877,7 @@
       <c r="S318" s="1"/>
       <c r="T318" s="1"/>
     </row>
-    <row r="319" spans="1:20">
+    <row r="319" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -7886,7 +7899,7 @@
       <c r="S319" s="1"/>
       <c r="T319" s="1"/>
     </row>
-    <row r="320" spans="1:20">
+    <row r="320" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -7908,7 +7921,7 @@
       <c r="S320" s="1"/>
       <c r="T320" s="1"/>
     </row>
-    <row r="321" spans="1:20">
+    <row r="321" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -7930,7 +7943,7 @@
       <c r="S321" s="1"/>
       <c r="T321" s="1"/>
     </row>
-    <row r="322" spans="1:20">
+    <row r="322" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -7952,7 +7965,7 @@
       <c r="S322" s="1"/>
       <c r="T322" s="1"/>
     </row>
-    <row r="323" spans="1:20">
+    <row r="323" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -7974,7 +7987,7 @@
       <c r="S323" s="1"/>
       <c r="T323" s="1"/>
     </row>
-    <row r="324" spans="1:20">
+    <row r="324" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -7996,7 +8009,7 @@
       <c r="S324" s="1"/>
       <c r="T324" s="1"/>
     </row>
-    <row r="325" spans="1:20">
+    <row r="325" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -8018,7 +8031,7 @@
       <c r="S325" s="1"/>
       <c r="T325" s="1"/>
     </row>
-    <row r="326" spans="1:20">
+    <row r="326" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -8040,7 +8053,7 @@
       <c r="S326" s="1"/>
       <c r="T326" s="1"/>
     </row>
-    <row r="327" spans="1:20">
+    <row r="327" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -8062,7 +8075,7 @@
       <c r="S327" s="1"/>
       <c r="T327" s="1"/>
     </row>
-    <row r="328" spans="1:20">
+    <row r="328" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -8084,7 +8097,7 @@
       <c r="S328" s="1"/>
       <c r="T328" s="1"/>
     </row>
-    <row r="329" spans="1:20">
+    <row r="329" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -8106,7 +8119,7 @@
       <c r="S329" s="1"/>
       <c r="T329" s="1"/>
     </row>
-    <row r="330" spans="1:20">
+    <row r="330" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -8128,7 +8141,7 @@
       <c r="S330" s="1"/>
       <c r="T330" s="1"/>
     </row>
-    <row r="331" spans="1:20">
+    <row r="331" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -8150,7 +8163,7 @@
       <c r="S331" s="1"/>
       <c r="T331" s="1"/>
     </row>
-    <row r="332" spans="1:20">
+    <row r="332" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -8172,7 +8185,7 @@
       <c r="S332" s="1"/>
       <c r="T332" s="1"/>
     </row>
-    <row r="333" spans="1:20">
+    <row r="333" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -8194,7 +8207,7 @@
       <c r="S333" s="1"/>
       <c r="T333" s="1"/>
     </row>
-    <row r="334" spans="1:20">
+    <row r="334" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -8216,7 +8229,7 @@
       <c r="S334" s="1"/>
       <c r="T334" s="1"/>
     </row>
-    <row r="335" spans="1:20">
+    <row r="335" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -8238,7 +8251,7 @@
       <c r="S335" s="1"/>
       <c r="T335" s="1"/>
     </row>
-    <row r="336" spans="1:20">
+    <row r="336" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -8260,7 +8273,7 @@
       <c r="S336" s="1"/>
       <c r="T336" s="1"/>
     </row>
-    <row r="337" spans="1:20">
+    <row r="337" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -8282,7 +8295,7 @@
       <c r="S337" s="1"/>
       <c r="T337" s="1"/>
     </row>
-    <row r="338" spans="1:20">
+    <row r="338" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -8304,7 +8317,7 @@
       <c r="S338" s="1"/>
       <c r="T338" s="1"/>
     </row>
-    <row r="339" spans="1:20">
+    <row r="339" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -8326,7 +8339,7 @@
       <c r="S339" s="1"/>
       <c r="T339" s="1"/>
     </row>
-    <row r="340" spans="1:20">
+    <row r="340" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -8348,7 +8361,7 @@
       <c r="S340" s="1"/>
       <c r="T340" s="1"/>
     </row>
-    <row r="341" spans="1:20">
+    <row r="341" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -8370,7 +8383,7 @@
       <c r="S341" s="1"/>
       <c r="T341" s="1"/>
     </row>
-    <row r="342" spans="1:20">
+    <row r="342" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -8392,7 +8405,7 @@
       <c r="S342" s="1"/>
       <c r="T342" s="1"/>
     </row>
-    <row r="343" spans="1:20">
+    <row r="343" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -8414,7 +8427,7 @@
       <c r="S343" s="1"/>
       <c r="T343" s="1"/>
     </row>
-    <row r="344" spans="1:20">
+    <row r="344" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -8436,7 +8449,7 @@
       <c r="S344" s="1"/>
       <c r="T344" s="1"/>
     </row>
-    <row r="345" spans="1:20">
+    <row r="345" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -8458,7 +8471,7 @@
       <c r="S345" s="1"/>
       <c r="T345" s="1"/>
     </row>
-    <row r="346" spans="1:20">
+    <row r="346" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -8480,7 +8493,7 @@
       <c r="S346" s="1"/>
       <c r="T346" s="1"/>
     </row>
-    <row r="347" spans="1:20">
+    <row r="347" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -8502,7 +8515,7 @@
       <c r="S347" s="1"/>
       <c r="T347" s="1"/>
     </row>
-    <row r="348" spans="1:20">
+    <row r="348" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -8524,7 +8537,7 @@
       <c r="S348" s="1"/>
       <c r="T348" s="1"/>
     </row>
-    <row r="349" spans="1:20">
+    <row r="349" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -8546,7 +8559,7 @@
       <c r="S349" s="1"/>
       <c r="T349" s="1"/>
     </row>
-    <row r="350" spans="1:20">
+    <row r="350" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -8568,7 +8581,7 @@
       <c r="S350" s="1"/>
       <c r="T350" s="1"/>
     </row>
-    <row r="351" spans="1:20">
+    <row r="351" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -8590,7 +8603,7 @@
       <c r="S351" s="1"/>
       <c r="T351" s="1"/>
     </row>
-    <row r="352" spans="1:20">
+    <row r="352" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -8612,7 +8625,7 @@
       <c r="S352" s="1"/>
       <c r="T352" s="1"/>
     </row>
-    <row r="353" spans="1:20">
+    <row r="353" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -8634,7 +8647,7 @@
       <c r="S353" s="1"/>
       <c r="T353" s="1"/>
     </row>
-    <row r="354" spans="1:20">
+    <row r="354" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -8656,7 +8669,7 @@
       <c r="S354" s="1"/>
       <c r="T354" s="1"/>
     </row>
-    <row r="355" spans="1:20">
+    <row r="355" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -8678,7 +8691,7 @@
       <c r="S355" s="1"/>
       <c r="T355" s="1"/>
     </row>
-    <row r="356" spans="1:20">
+    <row r="356" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -8700,7 +8713,7 @@
       <c r="S356" s="1"/>
       <c r="T356" s="1"/>
     </row>
-    <row r="357" spans="1:20">
+    <row r="357" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -8722,7 +8735,7 @@
       <c r="S357" s="1"/>
       <c r="T357" s="1"/>
     </row>
-    <row r="358" spans="1:20">
+    <row r="358" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -8744,7 +8757,7 @@
       <c r="S358" s="1"/>
       <c r="T358" s="1"/>
     </row>
-    <row r="359" spans="1:20">
+    <row r="359" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -8766,7 +8779,7 @@
       <c r="S359" s="1"/>
       <c r="T359" s="1"/>
     </row>
-    <row r="360" spans="1:20">
+    <row r="360" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -8788,7 +8801,7 @@
       <c r="S360" s="1"/>
       <c r="T360" s="1"/>
     </row>
-    <row r="361" spans="1:20">
+    <row r="361" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -8810,7 +8823,7 @@
       <c r="S361" s="1"/>
       <c r="T361" s="1"/>
     </row>
-    <row r="362" spans="1:20">
+    <row r="362" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -8832,7 +8845,7 @@
       <c r="S362" s="1"/>
       <c r="T362" s="1"/>
     </row>
-    <row r="363" spans="1:20">
+    <row r="363" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -8854,7 +8867,7 @@
       <c r="S363" s="1"/>
       <c r="T363" s="1"/>
     </row>
-    <row r="364" spans="1:20">
+    <row r="364" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -8876,7 +8889,7 @@
       <c r="S364" s="1"/>
       <c r="T364" s="1"/>
     </row>
-    <row r="365" spans="1:20">
+    <row r="365" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -8898,7 +8911,7 @@
       <c r="S365" s="1"/>
       <c r="T365" s="1"/>
     </row>
-    <row r="366" spans="1:20">
+    <row r="366" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -8920,7 +8933,7 @@
       <c r="S366" s="1"/>
       <c r="T366" s="1"/>
     </row>
-    <row r="367" spans="1:20">
+    <row r="367" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -8942,7 +8955,7 @@
       <c r="S367" s="1"/>
       <c r="T367" s="1"/>
     </row>
-    <row r="368" spans="1:20">
+    <row r="368" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -8964,7 +8977,7 @@
       <c r="S368" s="1"/>
       <c r="T368" s="1"/>
     </row>
-    <row r="369" spans="1:20">
+    <row r="369" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -8986,7 +8999,7 @@
       <c r="S369" s="1"/>
       <c r="T369" s="1"/>
     </row>
-    <row r="370" spans="1:20">
+    <row r="370" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -9008,7 +9021,7 @@
       <c r="S370" s="1"/>
       <c r="T370" s="1"/>
     </row>
-    <row r="371" spans="1:20">
+    <row r="371" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -9030,7 +9043,7 @@
       <c r="S371" s="1"/>
       <c r="T371" s="1"/>
     </row>
-    <row r="372" spans="1:20">
+    <row r="372" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -9052,7 +9065,7 @@
       <c r="S372" s="1"/>
       <c r="T372" s="1"/>
     </row>
-    <row r="373" spans="1:20">
+    <row r="373" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -9074,7 +9087,7 @@
       <c r="S373" s="1"/>
       <c r="T373" s="1"/>
     </row>
-    <row r="374" spans="1:20">
+    <row r="374" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -9096,7 +9109,7 @@
       <c r="S374" s="1"/>
       <c r="T374" s="1"/>
     </row>
-    <row r="375" spans="1:20">
+    <row r="375" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -9118,7 +9131,7 @@
       <c r="S375" s="1"/>
       <c r="T375" s="1"/>
     </row>
-    <row r="376" spans="1:20">
+    <row r="376" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -9140,7 +9153,7 @@
       <c r="S376" s="1"/>
       <c r="T376" s="1"/>
     </row>
-    <row r="377" spans="1:20">
+    <row r="377" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -9162,7 +9175,7 @@
       <c r="S377" s="1"/>
       <c r="T377" s="1"/>
     </row>
-    <row r="378" spans="1:20">
+    <row r="378" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -9184,7 +9197,7 @@
       <c r="S378" s="1"/>
       <c r="T378" s="1"/>
     </row>
-    <row r="379" spans="1:20">
+    <row r="379" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -9206,7 +9219,7 @@
       <c r="S379" s="1"/>
       <c r="T379" s="1"/>
     </row>
-    <row r="380" spans="1:20">
+    <row r="380" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -9228,7 +9241,7 @@
       <c r="S380" s="1"/>
       <c r="T380" s="1"/>
     </row>
-    <row r="381" spans="1:20">
+    <row r="381" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -9250,7 +9263,7 @@
       <c r="S381" s="1"/>
       <c r="T381" s="1"/>
     </row>
-    <row r="382" spans="1:20">
+    <row r="382" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -9272,7 +9285,7 @@
       <c r="S382" s="1"/>
       <c r="T382" s="1"/>
     </row>
-    <row r="383" spans="1:20">
+    <row r="383" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -9294,7 +9307,7 @@
       <c r="S383" s="1"/>
       <c r="T383" s="1"/>
     </row>
-    <row r="384" spans="1:20">
+    <row r="384" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -9316,7 +9329,7 @@
       <c r="S384" s="1"/>
       <c r="T384" s="1"/>
     </row>
-    <row r="385" spans="1:20">
+    <row r="385" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -9338,7 +9351,7 @@
       <c r="S385" s="1"/>
       <c r="T385" s="1"/>
     </row>
-    <row r="386" spans="1:20">
+    <row r="386" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -9360,7 +9373,7 @@
       <c r="S386" s="1"/>
       <c r="T386" s="1"/>
     </row>
-    <row r="387" spans="1:20">
+    <row r="387" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -9382,7 +9395,7 @@
       <c r="S387" s="1"/>
       <c r="T387" s="1"/>
     </row>
-    <row r="388" spans="1:20">
+    <row r="388" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -9404,7 +9417,7 @@
       <c r="S388" s="1"/>
       <c r="T388" s="1"/>
     </row>
-    <row r="389" spans="1:20">
+    <row r="389" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -9426,7 +9439,7 @@
       <c r="S389" s="1"/>
       <c r="T389" s="1"/>
     </row>
-    <row r="390" spans="1:20">
+    <row r="390" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -9448,7 +9461,7 @@
       <c r="S390" s="1"/>
       <c r="T390" s="1"/>
     </row>
-    <row r="391" spans="1:20">
+    <row r="391" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -9470,7 +9483,7 @@
       <c r="S391" s="1"/>
       <c r="T391" s="1"/>
     </row>
-    <row r="392" spans="1:20">
+    <row r="392" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -9492,7 +9505,7 @@
       <c r="S392" s="1"/>
       <c r="T392" s="1"/>
     </row>
-    <row r="393" spans="1:20">
+    <row r="393" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -9514,7 +9527,7 @@
       <c r="S393" s="1"/>
       <c r="T393" s="1"/>
     </row>
-    <row r="394" spans="1:20">
+    <row r="394" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -9536,7 +9549,7 @@
       <c r="S394" s="1"/>
       <c r="T394" s="1"/>
     </row>
-    <row r="395" spans="1:20">
+    <row r="395" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -9558,7 +9571,7 @@
       <c r="S395" s="1"/>
       <c r="T395" s="1"/>
     </row>
-    <row r="396" spans="1:20">
+    <row r="396" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -9580,7 +9593,7 @@
       <c r="S396" s="1"/>
       <c r="T396" s="1"/>
     </row>
-    <row r="397" spans="1:20">
+    <row r="397" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -9602,7 +9615,7 @@
       <c r="S397" s="1"/>
       <c r="T397" s="1"/>
     </row>
-    <row r="398" spans="1:20">
+    <row r="398" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -9624,7 +9637,7 @@
       <c r="S398" s="1"/>
       <c r="T398" s="1"/>
     </row>
-    <row r="399" spans="1:20">
+    <row r="399" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -9646,7 +9659,7 @@
       <c r="S399" s="1"/>
       <c r="T399" s="1"/>
     </row>
-    <row r="400" spans="1:20">
+    <row r="400" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -9668,7 +9681,7 @@
       <c r="S400" s="1"/>
       <c r="T400" s="1"/>
     </row>
-    <row r="401" spans="1:20">
+    <row r="401" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -9690,7 +9703,7 @@
       <c r="S401" s="1"/>
       <c r="T401" s="1"/>
     </row>
-    <row r="402" spans="1:20">
+    <row r="402" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -9712,7 +9725,7 @@
       <c r="S402" s="1"/>
       <c r="T402" s="1"/>
     </row>
-    <row r="403" spans="1:20">
+    <row r="403" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -9734,7 +9747,7 @@
       <c r="S403" s="1"/>
       <c r="T403" s="1"/>
     </row>
-    <row r="404" spans="1:20">
+    <row r="404" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -9756,7 +9769,7 @@
       <c r="S404" s="1"/>
       <c r="T404" s="1"/>
     </row>
-    <row r="405" spans="1:20">
+    <row r="405" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -9778,7 +9791,7 @@
       <c r="S405" s="1"/>
       <c r="T405" s="1"/>
     </row>
-    <row r="406" spans="1:20">
+    <row r="406" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -9800,7 +9813,7 @@
       <c r="S406" s="1"/>
       <c r="T406" s="1"/>
     </row>
-    <row r="407" spans="1:20">
+    <row r="407" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -9822,7 +9835,7 @@
       <c r="S407" s="1"/>
       <c r="T407" s="1"/>
     </row>
-    <row r="408" spans="1:20">
+    <row r="408" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -9844,7 +9857,7 @@
       <c r="S408" s="1"/>
       <c r="T408" s="1"/>
     </row>
-    <row r="409" spans="1:20">
+    <row r="409" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -9866,7 +9879,7 @@
       <c r="S409" s="1"/>
       <c r="T409" s="1"/>
     </row>
-    <row r="410" spans="1:20">
+    <row r="410" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -9888,7 +9901,7 @@
       <c r="S410" s="1"/>
       <c r="T410" s="1"/>
     </row>
-    <row r="411" spans="1:20">
+    <row r="411" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -9910,7 +9923,7 @@
       <c r="S411" s="1"/>
       <c r="T411" s="1"/>
     </row>
-    <row r="412" spans="1:20">
+    <row r="412" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -9932,7 +9945,7 @@
       <c r="S412" s="1"/>
       <c r="T412" s="1"/>
     </row>
-    <row r="413" spans="1:20">
+    <row r="413" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -9954,7 +9967,7 @@
       <c r="S413" s="1"/>
       <c r="T413" s="1"/>
     </row>
-    <row r="414" spans="1:20">
+    <row r="414" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -9976,7 +9989,7 @@
       <c r="S414" s="1"/>
       <c r="T414" s="1"/>
     </row>
-    <row r="415" spans="1:20">
+    <row r="415" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -9998,7 +10011,7 @@
       <c r="S415" s="1"/>
       <c r="T415" s="1"/>
     </row>
-    <row r="416" spans="1:20">
+    <row r="416" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -10020,7 +10033,7 @@
       <c r="S416" s="1"/>
       <c r="T416" s="1"/>
     </row>
-    <row r="417" spans="1:20">
+    <row r="417" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -10042,7 +10055,7 @@
       <c r="S417" s="1"/>
       <c r="T417" s="1"/>
     </row>
-    <row r="418" spans="1:20">
+    <row r="418" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -10064,7 +10077,7 @@
       <c r="S418" s="1"/>
       <c r="T418" s="1"/>
     </row>
-    <row r="419" spans="1:20">
+    <row r="419" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -10086,7 +10099,7 @@
       <c r="S419" s="1"/>
       <c r="T419" s="1"/>
     </row>
-    <row r="420" spans="1:20">
+    <row r="420" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -10108,7 +10121,7 @@
       <c r="S420" s="1"/>
       <c r="T420" s="1"/>
     </row>
-    <row r="421" spans="1:20">
+    <row r="421" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -10130,7 +10143,7 @@
       <c r="S421" s="1"/>
       <c r="T421" s="1"/>
     </row>
-    <row r="422" spans="1:20">
+    <row r="422" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -10152,7 +10165,7 @@
       <c r="S422" s="1"/>
       <c r="T422" s="1"/>
     </row>
-    <row r="423" spans="1:20">
+    <row r="423" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -10174,7 +10187,7 @@
       <c r="S423" s="1"/>
       <c r="T423" s="1"/>
     </row>
-    <row r="424" spans="1:20">
+    <row r="424" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -10196,7 +10209,7 @@
       <c r="S424" s="1"/>
       <c r="T424" s="1"/>
     </row>
-    <row r="425" spans="1:20">
+    <row r="425" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -10218,7 +10231,7 @@
       <c r="S425" s="1"/>
       <c r="T425" s="1"/>
     </row>
-    <row r="426" spans="1:20">
+    <row r="426" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -10240,7 +10253,7 @@
       <c r="S426" s="1"/>
       <c r="T426" s="1"/>
     </row>
-    <row r="427" spans="1:20">
+    <row r="427" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -10262,7 +10275,7 @@
       <c r="S427" s="1"/>
       <c r="T427" s="1"/>
     </row>
-    <row r="428" spans="1:20">
+    <row r="428" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -10284,7 +10297,7 @@
       <c r="S428" s="1"/>
       <c r="T428" s="1"/>
     </row>
-    <row r="429" spans="1:20">
+    <row r="429" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -10306,7 +10319,7 @@
       <c r="S429" s="1"/>
       <c r="T429" s="1"/>
     </row>
-    <row r="430" spans="1:20">
+    <row r="430" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -10328,7 +10341,7 @@
       <c r="S430" s="1"/>
       <c r="T430" s="1"/>
     </row>
-    <row r="431" spans="1:20">
+    <row r="431" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -10350,7 +10363,7 @@
       <c r="S431" s="1"/>
       <c r="T431" s="1"/>
     </row>
-    <row r="432" spans="1:20">
+    <row r="432" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -10372,7 +10385,7 @@
       <c r="S432" s="1"/>
       <c r="T432" s="1"/>
     </row>
-    <row r="433" spans="1:20">
+    <row r="433" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -10394,7 +10407,7 @@
       <c r="S433" s="1"/>
       <c r="T433" s="1"/>
     </row>
-    <row r="434" spans="1:20">
+    <row r="434" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -10416,7 +10429,7 @@
       <c r="S434" s="1"/>
       <c r="T434" s="1"/>
     </row>
-    <row r="435" spans="1:20">
+    <row r="435" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -10438,7 +10451,7 @@
       <c r="S435" s="1"/>
       <c r="T435" s="1"/>
     </row>
-    <row r="436" spans="1:20">
+    <row r="436" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -10460,7 +10473,7 @@
       <c r="S436" s="1"/>
       <c r="T436" s="1"/>
     </row>
-    <row r="437" spans="1:20">
+    <row r="437" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -10482,7 +10495,7 @@
       <c r="S437" s="1"/>
       <c r="T437" s="1"/>
     </row>
-    <row r="438" spans="1:20">
+    <row r="438" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -10504,7 +10517,7 @@
       <c r="S438" s="1"/>
       <c r="T438" s="1"/>
     </row>
-    <row r="439" spans="1:20">
+    <row r="439" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -10526,7 +10539,7 @@
       <c r="S439" s="1"/>
       <c r="T439" s="1"/>
     </row>
-    <row r="440" spans="1:20">
+    <row r="440" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -10548,7 +10561,7 @@
       <c r="S440" s="1"/>
       <c r="T440" s="1"/>
     </row>
-    <row r="441" spans="1:20">
+    <row r="441" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -10570,7 +10583,7 @@
       <c r="S441" s="1"/>
       <c r="T441" s="1"/>
     </row>
-    <row r="442" spans="1:20">
+    <row r="442" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -10592,7 +10605,7 @@
       <c r="S442" s="1"/>
       <c r="T442" s="1"/>
     </row>
-    <row r="443" spans="1:20">
+    <row r="443" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -10614,7 +10627,7 @@
       <c r="S443" s="1"/>
       <c r="T443" s="1"/>
     </row>
-    <row r="444" spans="1:20">
+    <row r="444" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -10636,7 +10649,7 @@
       <c r="S444" s="1"/>
       <c r="T444" s="1"/>
     </row>
-    <row r="445" spans="1:20">
+    <row r="445" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -10658,7 +10671,7 @@
       <c r="S445" s="1"/>
       <c r="T445" s="1"/>
     </row>
-    <row r="446" spans="1:20">
+    <row r="446" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -10680,7 +10693,7 @@
       <c r="S446" s="1"/>
       <c r="T446" s="1"/>
     </row>
-    <row r="447" spans="1:20">
+    <row r="447" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -10702,7 +10715,7 @@
       <c r="S447" s="1"/>
       <c r="T447" s="1"/>
     </row>
-    <row r="448" spans="1:20">
+    <row r="448" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -10724,7 +10737,7 @@
       <c r="S448" s="1"/>
       <c r="T448" s="1"/>
     </row>
-    <row r="449" spans="1:20">
+    <row r="449" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -10746,7 +10759,7 @@
       <c r="S449" s="1"/>
       <c r="T449" s="1"/>
     </row>
-    <row r="450" spans="1:20">
+    <row r="450" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -10768,7 +10781,7 @@
       <c r="S450" s="1"/>
       <c r="T450" s="1"/>
     </row>
-    <row r="451" spans="1:20">
+    <row r="451" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -10790,7 +10803,7 @@
       <c r="S451" s="1"/>
       <c r="T451" s="1"/>
     </row>
-    <row r="452" spans="1:20">
+    <row r="452" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -10812,7 +10825,7 @@
       <c r="S452" s="1"/>
       <c r="T452" s="1"/>
     </row>
-    <row r="453" spans="1:20">
+    <row r="453" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -10834,7 +10847,7 @@
       <c r="S453" s="1"/>
       <c r="T453" s="1"/>
     </row>
-    <row r="454" spans="1:20">
+    <row r="454" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -10856,7 +10869,7 @@
       <c r="S454" s="1"/>
       <c r="T454" s="1"/>
     </row>
-    <row r="455" spans="1:20">
+    <row r="455" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -10878,7 +10891,7 @@
       <c r="S455" s="1"/>
       <c r="T455" s="1"/>
     </row>
-    <row r="456" spans="1:20">
+    <row r="456" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -10900,7 +10913,7 @@
       <c r="S456" s="1"/>
       <c r="T456" s="1"/>
     </row>
-    <row r="457" spans="1:20">
+    <row r="457" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -10922,7 +10935,7 @@
       <c r="S457" s="1"/>
       <c r="T457" s="1"/>
     </row>
-    <row r="458" spans="1:20">
+    <row r="458" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -10944,7 +10957,7 @@
       <c r="S458" s="1"/>
       <c r="T458" s="1"/>
     </row>
-    <row r="459" spans="1:20">
+    <row r="459" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -10966,7 +10979,7 @@
       <c r="S459" s="1"/>
       <c r="T459" s="1"/>
     </row>
-    <row r="460" spans="1:20">
+    <row r="460" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -10988,7 +11001,7 @@
       <c r="S460" s="1"/>
       <c r="T460" s="1"/>
     </row>
-    <row r="461" spans="1:20">
+    <row r="461" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -11010,7 +11023,7 @@
       <c r="S461" s="1"/>
       <c r="T461" s="1"/>
     </row>
-    <row r="462" spans="1:20">
+    <row r="462" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -11032,7 +11045,7 @@
       <c r="S462" s="1"/>
       <c r="T462" s="1"/>
     </row>
-    <row r="463" spans="1:20">
+    <row r="463" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -11054,7 +11067,7 @@
       <c r="S463" s="1"/>
       <c r="T463" s="1"/>
     </row>
-    <row r="464" spans="1:20">
+    <row r="464" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -11076,7 +11089,7 @@
       <c r="S464" s="1"/>
       <c r="T464" s="1"/>
     </row>
-    <row r="465" spans="1:20">
+    <row r="465" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -11098,7 +11111,7 @@
       <c r="S465" s="1"/>
       <c r="T465" s="1"/>
     </row>
-    <row r="466" spans="1:20">
+    <row r="466" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -11120,7 +11133,7 @@
       <c r="S466" s="1"/>
       <c r="T466" s="1"/>
     </row>
-    <row r="467" spans="1:20">
+    <row r="467" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -11142,7 +11155,7 @@
       <c r="S467" s="1"/>
       <c r="T467" s="1"/>
     </row>
-    <row r="468" spans="1:20">
+    <row r="468" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -11164,7 +11177,7 @@
       <c r="S468" s="1"/>
       <c r="T468" s="1"/>
     </row>
-    <row r="469" spans="1:20">
+    <row r="469" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -11186,7 +11199,7 @@
       <c r="S469" s="1"/>
       <c r="T469" s="1"/>
     </row>
-    <row r="470" spans="1:20">
+    <row r="470" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -11208,7 +11221,7 @@
       <c r="S470" s="1"/>
       <c r="T470" s="1"/>
     </row>
-    <row r="471" spans="1:20">
+    <row r="471" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -11230,7 +11243,7 @@
       <c r="S471" s="1"/>
       <c r="T471" s="1"/>
     </row>
-    <row r="472" spans="1:20">
+    <row r="472" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -11252,7 +11265,7 @@
       <c r="S472" s="1"/>
       <c r="T472" s="1"/>
     </row>
-    <row r="473" spans="1:20">
+    <row r="473" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -11274,7 +11287,7 @@
       <c r="S473" s="1"/>
       <c r="T473" s="1"/>
     </row>
-    <row r="474" spans="1:20">
+    <row r="474" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -11296,7 +11309,7 @@
       <c r="S474" s="1"/>
       <c r="T474" s="1"/>
     </row>
-    <row r="475" spans="1:20">
+    <row r="475" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -11318,7 +11331,7 @@
       <c r="S475" s="1"/>
       <c r="T475" s="1"/>
     </row>
-    <row r="476" spans="1:20">
+    <row r="476" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -11340,7 +11353,7 @@
       <c r="S476" s="1"/>
       <c r="T476" s="1"/>
     </row>
-    <row r="477" spans="1:20">
+    <row r="477" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -11362,7 +11375,7 @@
       <c r="S477" s="1"/>
       <c r="T477" s="1"/>
     </row>
-    <row r="478" spans="1:20">
+    <row r="478" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -11384,7 +11397,7 @@
       <c r="S478" s="1"/>
       <c r="T478" s="1"/>
     </row>
-    <row r="479" spans="1:20">
+    <row r="479" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -11406,7 +11419,7 @@
       <c r="S479" s="1"/>
       <c r="T479" s="1"/>
     </row>
-    <row r="480" spans="1:20">
+    <row r="480" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -11428,7 +11441,7 @@
       <c r="S480" s="1"/>
       <c r="T480" s="1"/>
     </row>
-    <row r="481" spans="1:20">
+    <row r="481" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -11450,7 +11463,7 @@
       <c r="S481" s="1"/>
       <c r="T481" s="1"/>
     </row>
-    <row r="482" spans="1:20">
+    <row r="482" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -11472,7 +11485,7 @@
       <c r="S482" s="1"/>
       <c r="T482" s="1"/>
     </row>
-    <row r="483" spans="1:20">
+    <row r="483" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -11494,7 +11507,7 @@
       <c r="S483" s="1"/>
       <c r="T483" s="1"/>
     </row>
-    <row r="484" spans="1:20">
+    <row r="484" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -11516,7 +11529,7 @@
       <c r="S484" s="1"/>
       <c r="T484" s="1"/>
     </row>
-    <row r="485" spans="1:20">
+    <row r="485" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -11538,7 +11551,7 @@
       <c r="S485" s="1"/>
       <c r="T485" s="1"/>
     </row>
-    <row r="486" spans="1:20">
+    <row r="486" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -11560,7 +11573,7 @@
       <c r="S486" s="1"/>
       <c r="T486" s="1"/>
     </row>
-    <row r="487" spans="1:20">
+    <row r="487" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -11582,7 +11595,7 @@
       <c r="S487" s="1"/>
       <c r="T487" s="1"/>
     </row>
-    <row r="488" spans="1:20">
+    <row r="488" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -11604,7 +11617,7 @@
       <c r="S488" s="1"/>
       <c r="T488" s="1"/>
     </row>
-    <row r="489" spans="1:20">
+    <row r="489" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -11626,7 +11639,7 @@
       <c r="S489" s="1"/>
       <c r="T489" s="1"/>
     </row>
-    <row r="490" spans="1:20">
+    <row r="490" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -11648,7 +11661,7 @@
       <c r="S490" s="1"/>
       <c r="T490" s="1"/>
     </row>
-    <row r="491" spans="1:20">
+    <row r="491" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -11670,7 +11683,7 @@
       <c r="S491" s="1"/>
       <c r="T491" s="1"/>
     </row>
-    <row r="492" spans="1:20">
+    <row r="492" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -11692,7 +11705,7 @@
       <c r="S492" s="1"/>
       <c r="T492" s="1"/>
     </row>
-    <row r="493" spans="1:20">
+    <row r="493" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -11714,7 +11727,7 @@
       <c r="S493" s="1"/>
       <c r="T493" s="1"/>
     </row>
-    <row r="494" spans="1:20">
+    <row r="494" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -11736,7 +11749,7 @@
       <c r="S494" s="1"/>
       <c r="T494" s="1"/>
     </row>
-    <row r="495" spans="1:20">
+    <row r="495" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -11758,7 +11771,7 @@
       <c r="S495" s="1"/>
       <c r="T495" s="1"/>
     </row>
-    <row r="496" spans="1:20">
+    <row r="496" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -11780,7 +11793,7 @@
       <c r="S496" s="1"/>
       <c r="T496" s="1"/>
     </row>
-    <row r="497" spans="1:20">
+    <row r="497" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -11802,7 +11815,7 @@
       <c r="S497" s="1"/>
       <c r="T497" s="1"/>
     </row>
-    <row r="498" spans="1:20">
+    <row r="498" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -11824,7 +11837,7 @@
       <c r="S498" s="1"/>
       <c r="T498" s="1"/>
     </row>
-    <row r="499" spans="1:20">
+    <row r="499" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -11846,7 +11859,7 @@
       <c r="S499" s="1"/>
       <c r="T499" s="1"/>
     </row>
-    <row r="500" spans="1:20">
+    <row r="500" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -11868,7 +11881,7 @@
       <c r="S500" s="1"/>
       <c r="T500" s="1"/>
     </row>
-    <row r="501" spans="1:20">
+    <row r="501" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -11890,7 +11903,7 @@
       <c r="S501" s="1"/>
       <c r="T501" s="1"/>
     </row>
-    <row r="502" spans="1:20">
+    <row r="502" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -11912,7 +11925,7 @@
       <c r="S502" s="1"/>
       <c r="T502" s="1"/>
     </row>
-    <row r="503" spans="1:20">
+    <row r="503" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -11934,7 +11947,7 @@
       <c r="S503" s="1"/>
       <c r="T503" s="1"/>
     </row>
-    <row r="504" spans="1:20">
+    <row r="504" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -11956,7 +11969,7 @@
       <c r="S504" s="1"/>
       <c r="T504" s="1"/>
     </row>
-    <row r="505" spans="1:20">
+    <row r="505" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -11978,7 +11991,7 @@
       <c r="S505" s="1"/>
       <c r="T505" s="1"/>
     </row>
-    <row r="506" spans="1:20">
+    <row r="506" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -12000,7 +12013,7 @@
       <c r="S506" s="1"/>
       <c r="T506" s="1"/>
     </row>
-    <row r="507" spans="1:20">
+    <row r="507" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -12022,7 +12035,7 @@
       <c r="S507" s="1"/>
       <c r="T507" s="1"/>
     </row>
-    <row r="508" spans="1:20">
+    <row r="508" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -12044,7 +12057,7 @@
       <c r="S508" s="1"/>
       <c r="T508" s="1"/>
     </row>
-    <row r="509" spans="1:20">
+    <row r="509" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -12066,7 +12079,7 @@
       <c r="S509" s="1"/>
       <c r="T509" s="1"/>
     </row>
-    <row r="510" spans="1:20">
+    <row r="510" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -12088,7 +12101,7 @@
       <c r="S510" s="1"/>
       <c r="T510" s="1"/>
     </row>
-    <row r="511" spans="1:20">
+    <row r="511" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -12110,7 +12123,7 @@
       <c r="S511" s="1"/>
       <c r="T511" s="1"/>
     </row>
-    <row r="512" spans="1:20">
+    <row r="512" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -12132,7 +12145,7 @@
       <c r="S512" s="1"/>
       <c r="T512" s="1"/>
     </row>
-    <row r="513" spans="1:20">
+    <row r="513" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -12154,7 +12167,7 @@
       <c r="S513" s="1"/>
       <c r="T513" s="1"/>
     </row>
-    <row r="514" spans="1:20">
+    <row r="514" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -12176,7 +12189,7 @@
       <c r="S514" s="1"/>
       <c r="T514" s="1"/>
     </row>
-    <row r="515" spans="1:20">
+    <row r="515" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -12198,7 +12211,7 @@
       <c r="S515" s="1"/>
       <c r="T515" s="1"/>
     </row>
-    <row r="516" spans="1:20">
+    <row r="516" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -12220,7 +12233,7 @@
       <c r="S516" s="1"/>
       <c r="T516" s="1"/>
     </row>
-    <row r="517" spans="1:20">
+    <row r="517" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -12242,7 +12255,7 @@
       <c r="S517" s="1"/>
       <c r="T517" s="1"/>
     </row>
-    <row r="518" spans="1:20">
+    <row r="518" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -12264,7 +12277,7 @@
       <c r="S518" s="1"/>
       <c r="T518" s="1"/>
     </row>
-    <row r="519" spans="1:20">
+    <row r="519" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -12286,7 +12299,7 @@
       <c r="S519" s="1"/>
       <c r="T519" s="1"/>
     </row>
-    <row r="520" spans="1:20">
+    <row r="520" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -12308,7 +12321,7 @@
       <c r="S520" s="1"/>
       <c r="T520" s="1"/>
     </row>
-    <row r="521" spans="1:20">
+    <row r="521" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -12330,7 +12343,7 @@
       <c r="S521" s="1"/>
       <c r="T521" s="1"/>
     </row>
-    <row r="522" spans="1:20">
+    <row r="522" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -12352,7 +12365,7 @@
       <c r="S522" s="1"/>
       <c r="T522" s="1"/>
     </row>
-    <row r="523" spans="1:20">
+    <row r="523" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -12374,7 +12387,7 @@
       <c r="S523" s="1"/>
       <c r="T523" s="1"/>
     </row>
-    <row r="524" spans="1:20">
+    <row r="524" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -12396,7 +12409,7 @@
       <c r="S524" s="1"/>
       <c r="T524" s="1"/>
     </row>
-    <row r="525" spans="1:20">
+    <row r="525" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -12418,7 +12431,7 @@
       <c r="S525" s="1"/>
       <c r="T525" s="1"/>
     </row>
-    <row r="526" spans="1:20">
+    <row r="526" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -12440,7 +12453,7 @@
       <c r="S526" s="1"/>
       <c r="T526" s="1"/>
     </row>
-    <row r="527" spans="1:20">
+    <row r="527" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -12462,7 +12475,7 @@
       <c r="S527" s="1"/>
       <c r="T527" s="1"/>
     </row>
-    <row r="528" spans="1:20">
+    <row r="528" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -12484,7 +12497,7 @@
       <c r="S528" s="1"/>
       <c r="T528" s="1"/>
     </row>
-    <row r="529" spans="1:20">
+    <row r="529" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -12506,7 +12519,7 @@
       <c r="S529" s="1"/>
       <c r="T529" s="1"/>
     </row>
-    <row r="530" spans="1:20">
+    <row r="530" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -12528,7 +12541,7 @@
       <c r="S530" s="1"/>
       <c r="T530" s="1"/>
     </row>
-    <row r="531" spans="1:20">
+    <row r="531" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -12550,7 +12563,7 @@
       <c r="S531" s="1"/>
       <c r="T531" s="1"/>
     </row>
-    <row r="532" spans="1:20">
+    <row r="532" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -12572,7 +12585,7 @@
       <c r="S532" s="1"/>
       <c r="T532" s="1"/>
     </row>
-    <row r="533" spans="1:20">
+    <row r="533" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -12594,7 +12607,7 @@
       <c r="S533" s="1"/>
       <c r="T533" s="1"/>
     </row>
-    <row r="534" spans="1:20">
+    <row r="534" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -12616,7 +12629,7 @@
       <c r="S534" s="1"/>
       <c r="T534" s="1"/>
     </row>
-    <row r="535" spans="1:20">
+    <row r="535" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -12638,7 +12651,7 @@
       <c r="S535" s="1"/>
       <c r="T535" s="1"/>
     </row>
-    <row r="536" spans="1:20">
+    <row r="536" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -12660,7 +12673,7 @@
       <c r="S536" s="1"/>
       <c r="T536" s="1"/>
     </row>
-    <row r="537" spans="1:20">
+    <row r="537" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -12682,7 +12695,7 @@
       <c r="S537" s="1"/>
       <c r="T537" s="1"/>
     </row>
-    <row r="538" spans="1:20">
+    <row r="538" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -12704,7 +12717,7 @@
       <c r="S538" s="1"/>
       <c r="T538" s="1"/>
     </row>
-    <row r="539" spans="1:20">
+    <row r="539" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -12726,7 +12739,7 @@
       <c r="S539" s="1"/>
       <c r="T539" s="1"/>
     </row>
-    <row r="540" spans="1:20">
+    <row r="540" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -12748,7 +12761,7 @@
       <c r="S540" s="1"/>
       <c r="T540" s="1"/>
     </row>
-    <row r="541" spans="1:20">
+    <row r="541" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -12770,7 +12783,7 @@
       <c r="S541" s="1"/>
       <c r="T541" s="1"/>
     </row>
-    <row r="542" spans="1:20">
+    <row r="542" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -12792,7 +12805,7 @@
       <c r="S542" s="1"/>
       <c r="T542" s="1"/>
     </row>
-    <row r="543" spans="1:20">
+    <row r="543" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -12814,7 +12827,7 @@
       <c r="S543" s="1"/>
       <c r="T543" s="1"/>
     </row>
-    <row r="544" spans="1:20">
+    <row r="544" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -12836,7 +12849,7 @@
       <c r="S544" s="1"/>
       <c r="T544" s="1"/>
     </row>
-    <row r="545" spans="1:20">
+    <row r="545" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -12858,7 +12871,7 @@
       <c r="S545" s="1"/>
       <c r="T545" s="1"/>
     </row>
-    <row r="546" spans="1:20">
+    <row r="546" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -12880,7 +12893,7 @@
       <c r="S546" s="1"/>
       <c r="T546" s="1"/>
     </row>
-    <row r="547" spans="1:20">
+    <row r="547" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -12902,7 +12915,7 @@
       <c r="S547" s="1"/>
       <c r="T547" s="1"/>
     </row>
-    <row r="548" spans="1:20">
+    <row r="548" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -12924,7 +12937,7 @@
       <c r="S548" s="1"/>
       <c r="T548" s="1"/>
     </row>
-    <row r="549" spans="1:20">
+    <row r="549" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -12946,7 +12959,7 @@
       <c r="S549" s="1"/>
       <c r="T549" s="1"/>
     </row>
-    <row r="550" spans="1:20">
+    <row r="550" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -12968,7 +12981,7 @@
       <c r="S550" s="1"/>
       <c r="T550" s="1"/>
     </row>
-    <row r="551" spans="1:20">
+    <row r="551" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -12990,7 +13003,7 @@
       <c r="S551" s="1"/>
       <c r="T551" s="1"/>
     </row>
-    <row r="552" spans="1:20">
+    <row r="552" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -13012,7 +13025,7 @@
       <c r="S552" s="1"/>
       <c r="T552" s="1"/>
     </row>
-    <row r="553" spans="1:20">
+    <row r="553" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -13034,7 +13047,7 @@
       <c r="S553" s="1"/>
       <c r="T553" s="1"/>
     </row>
-    <row r="554" spans="1:20">
+    <row r="554" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
@@ -13056,7 +13069,7 @@
       <c r="S554" s="1"/>
       <c r="T554" s="1"/>
     </row>
-    <row r="555" spans="1:20">
+    <row r="555" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -13078,7 +13091,7 @@
       <c r="S555" s="1"/>
       <c r="T555" s="1"/>
     </row>
-    <row r="556" spans="1:20">
+    <row r="556" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -13100,7 +13113,7 @@
       <c r="S556" s="1"/>
       <c r="T556" s="1"/>
     </row>
-    <row r="557" spans="1:20">
+    <row r="557" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
@@ -13122,7 +13135,7 @@
       <c r="S557" s="1"/>
       <c r="T557" s="1"/>
     </row>
-    <row r="558" spans="1:20">
+    <row r="558" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -13144,7 +13157,7 @@
       <c r="S558" s="1"/>
       <c r="T558" s="1"/>
     </row>
-    <row r="559" spans="1:20">
+    <row r="559" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -13166,7 +13179,7 @@
       <c r="S559" s="1"/>
       <c r="T559" s="1"/>
     </row>
-    <row r="560" spans="1:20">
+    <row r="560" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
@@ -13188,7 +13201,7 @@
       <c r="S560" s="1"/>
       <c r="T560" s="1"/>
     </row>
-    <row r="561" spans="1:20">
+    <row r="561" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -13210,7 +13223,7 @@
       <c r="S561" s="1"/>
       <c r="T561" s="1"/>
     </row>
-    <row r="562" spans="1:20">
+    <row r="562" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -13232,7 +13245,7 @@
       <c r="S562" s="1"/>
       <c r="T562" s="1"/>
     </row>
-    <row r="563" spans="1:20">
+    <row r="563" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
@@ -13254,7 +13267,7 @@
       <c r="S563" s="1"/>
       <c r="T563" s="1"/>
     </row>
-    <row r="564" spans="1:20">
+    <row r="564" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -13276,7 +13289,7 @@
       <c r="S564" s="1"/>
       <c r="T564" s="1"/>
     </row>
-    <row r="565" spans="1:20">
+    <row r="565" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -13298,7 +13311,7 @@
       <c r="S565" s="1"/>
       <c r="T565" s="1"/>
     </row>
-    <row r="566" spans="1:20">
+    <row r="566" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
@@ -13320,7 +13333,7 @@
       <c r="S566" s="1"/>
       <c r="T566" s="1"/>
     </row>
-    <row r="567" spans="1:20">
+    <row r="567" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -13342,7 +13355,7 @@
       <c r="S567" s="1"/>
       <c r="T567" s="1"/>
     </row>
-    <row r="568" spans="1:20">
+    <row r="568" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
@@ -13364,7 +13377,7 @@
       <c r="S568" s="1"/>
       <c r="T568" s="1"/>
     </row>
-    <row r="569" spans="1:20">
+    <row r="569" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -13386,7 +13399,7 @@
       <c r="S569" s="1"/>
       <c r="T569" s="1"/>
     </row>
-    <row r="570" spans="1:20">
+    <row r="570" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
@@ -13408,7 +13421,7 @@
       <c r="S570" s="1"/>
       <c r="T570" s="1"/>
     </row>
-    <row r="571" spans="1:20">
+    <row r="571" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
@@ -13430,7 +13443,7 @@
       <c r="S571" s="1"/>
       <c r="T571" s="1"/>
     </row>
-    <row r="572" spans="1:20">
+    <row r="572" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
@@ -13452,7 +13465,7 @@
       <c r="S572" s="1"/>
       <c r="T572" s="1"/>
     </row>
-    <row r="573" spans="1:20">
+    <row r="573" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
@@ -13474,7 +13487,7 @@
       <c r="S573" s="1"/>
       <c r="T573" s="1"/>
     </row>
-    <row r="574" spans="1:20">
+    <row r="574" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
@@ -13496,7 +13509,7 @@
       <c r="S574" s="1"/>
       <c r="T574" s="1"/>
     </row>
-    <row r="575" spans="1:20">
+    <row r="575" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
@@ -13518,7 +13531,7 @@
       <c r="S575" s="1"/>
       <c r="T575" s="1"/>
     </row>
-    <row r="576" spans="1:20">
+    <row r="576" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
@@ -13540,7 +13553,7 @@
       <c r="S576" s="1"/>
       <c r="T576" s="1"/>
     </row>
-    <row r="577" spans="1:20">
+    <row r="577" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
@@ -13562,7 +13575,7 @@
       <c r="S577" s="1"/>
       <c r="T577" s="1"/>
     </row>
-    <row r="578" spans="1:20">
+    <row r="578" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
@@ -13584,7 +13597,7 @@
       <c r="S578" s="1"/>
       <c r="T578" s="1"/>
     </row>
-    <row r="579" spans="1:20">
+    <row r="579" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
@@ -13606,7 +13619,7 @@
       <c r="S579" s="1"/>
       <c r="T579" s="1"/>
     </row>
-    <row r="580" spans="1:20">
+    <row r="580" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
@@ -13628,7 +13641,7 @@
       <c r="S580" s="1"/>
       <c r="T580" s="1"/>
     </row>
-    <row r="581" spans="1:20">
+    <row r="581" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
@@ -13650,7 +13663,7 @@
       <c r="S581" s="1"/>
       <c r="T581" s="1"/>
     </row>
-    <row r="582" spans="1:20">
+    <row r="582" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
@@ -13672,7 +13685,7 @@
       <c r="S582" s="1"/>
       <c r="T582" s="1"/>
     </row>
-    <row r="583" spans="1:20">
+    <row r="583" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
@@ -13694,7 +13707,7 @@
       <c r="S583" s="1"/>
       <c r="T583" s="1"/>
     </row>
-    <row r="584" spans="1:20">
+    <row r="584" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
@@ -13716,7 +13729,7 @@
       <c r="S584" s="1"/>
       <c r="T584" s="1"/>
     </row>
-    <row r="585" spans="1:20">
+    <row r="585" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
@@ -13738,7 +13751,7 @@
       <c r="S585" s="1"/>
       <c r="T585" s="1"/>
     </row>
-    <row r="586" spans="1:20">
+    <row r="586" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
@@ -13760,7 +13773,7 @@
       <c r="S586" s="1"/>
       <c r="T586" s="1"/>
     </row>
-    <row r="587" spans="1:20">
+    <row r="587" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
@@ -13782,7 +13795,7 @@
       <c r="S587" s="1"/>
       <c r="T587" s="1"/>
     </row>
-    <row r="588" spans="1:20">
+    <row r="588" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
@@ -13804,7 +13817,7 @@
       <c r="S588" s="1"/>
       <c r="T588" s="1"/>
     </row>
-    <row r="589" spans="1:20">
+    <row r="589" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
@@ -13826,7 +13839,7 @@
       <c r="S589" s="1"/>
       <c r="T589" s="1"/>
     </row>
-    <row r="590" spans="1:20">
+    <row r="590" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
@@ -13848,7 +13861,7 @@
       <c r="S590" s="1"/>
       <c r="T590" s="1"/>
     </row>
-    <row r="591" spans="1:20">
+    <row r="591" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
@@ -13870,7 +13883,7 @@
       <c r="S591" s="1"/>
       <c r="T591" s="1"/>
     </row>
-    <row r="592" spans="1:20">
+    <row r="592" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
@@ -13892,7 +13905,7 @@
       <c r="S592" s="1"/>
       <c r="T592" s="1"/>
     </row>
-    <row r="593" spans="1:20">
+    <row r="593" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
@@ -13914,7 +13927,7 @@
       <c r="S593" s="1"/>
       <c r="T593" s="1"/>
     </row>
-    <row r="594" spans="1:20">
+    <row r="594" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
@@ -13936,7 +13949,7 @@
       <c r="S594" s="1"/>
       <c r="T594" s="1"/>
     </row>
-    <row r="595" spans="1:20">
+    <row r="595" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
@@ -13958,7 +13971,7 @@
       <c r="S595" s="1"/>
       <c r="T595" s="1"/>
     </row>
-    <row r="596" spans="1:20">
+    <row r="596" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
@@ -13980,7 +13993,7 @@
       <c r="S596" s="1"/>
       <c r="T596" s="1"/>
     </row>
-    <row r="597" spans="1:20">
+    <row r="597" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
@@ -14002,7 +14015,7 @@
       <c r="S597" s="1"/>
       <c r="T597" s="1"/>
     </row>
-    <row r="598" spans="1:20">
+    <row r="598" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
@@ -14024,7 +14037,7 @@
       <c r="S598" s="1"/>
       <c r="T598" s="1"/>
     </row>
-    <row r="599" spans="1:20">
+    <row r="599" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
@@ -14046,7 +14059,7 @@
       <c r="S599" s="1"/>
       <c r="T599" s="1"/>
     </row>
-    <row r="600" spans="1:20">
+    <row r="600" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
@@ -14068,7 +14081,7 @@
       <c r="S600" s="1"/>
       <c r="T600" s="1"/>
     </row>
-    <row r="601" spans="1:20">
+    <row r="601" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
@@ -14090,7 +14103,7 @@
       <c r="S601" s="1"/>
       <c r="T601" s="1"/>
     </row>
-    <row r="602" spans="1:20">
+    <row r="602" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
@@ -14112,7 +14125,7 @@
       <c r="S602" s="1"/>
       <c r="T602" s="1"/>
     </row>
-    <row r="603" spans="1:20">
+    <row r="603" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
@@ -14134,7 +14147,7 @@
       <c r="S603" s="1"/>
       <c r="T603" s="1"/>
     </row>
-    <row r="604" spans="1:20">
+    <row r="604" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
@@ -14156,7 +14169,7 @@
       <c r="S604" s="1"/>
       <c r="T604" s="1"/>
     </row>
-    <row r="605" spans="1:20">
+    <row r="605" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
@@ -14178,7 +14191,7 @@
       <c r="S605" s="1"/>
       <c r="T605" s="1"/>
     </row>
-    <row r="606" spans="1:20">
+    <row r="606" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
@@ -14200,7 +14213,7 @@
       <c r="S606" s="1"/>
       <c r="T606" s="1"/>
     </row>
-    <row r="607" spans="1:20">
+    <row r="607" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
@@ -14222,7 +14235,7 @@
       <c r="S607" s="1"/>
       <c r="T607" s="1"/>
     </row>
-    <row r="608" spans="1:20">
+    <row r="608" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
@@ -14244,7 +14257,7 @@
       <c r="S608" s="1"/>
       <c r="T608" s="1"/>
     </row>
-    <row r="609" spans="1:20">
+    <row r="609" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
@@ -14266,7 +14279,7 @@
       <c r="S609" s="1"/>
       <c r="T609" s="1"/>
     </row>
-    <row r="610" spans="1:20">
+    <row r="610" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
@@ -14288,7 +14301,7 @@
       <c r="S610" s="1"/>
       <c r="T610" s="1"/>
     </row>
-    <row r="611" spans="1:20">
+    <row r="611" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
@@ -14310,7 +14323,7 @@
       <c r="S611" s="1"/>
       <c r="T611" s="1"/>
     </row>
-    <row r="612" spans="1:20">
+    <row r="612" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
@@ -14332,7 +14345,7 @@
       <c r="S612" s="1"/>
       <c r="T612" s="1"/>
     </row>
-    <row r="613" spans="1:20">
+    <row r="613" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
@@ -14354,7 +14367,7 @@
       <c r="S613" s="1"/>
       <c r="T613" s="1"/>
     </row>
-    <row r="614" spans="1:20">
+    <row r="614" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
@@ -14376,7 +14389,7 @@
       <c r="S614" s="1"/>
       <c r="T614" s="1"/>
     </row>
-    <row r="615" spans="1:20">
+    <row r="615" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
@@ -14398,7 +14411,7 @@
       <c r="S615" s="1"/>
       <c r="T615" s="1"/>
     </row>
-    <row r="616" spans="1:20">
+    <row r="616" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
@@ -14420,7 +14433,7 @@
       <c r="S616" s="1"/>
       <c r="T616" s="1"/>
     </row>
-    <row r="617" spans="1:20">
+    <row r="617" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
@@ -14442,7 +14455,7 @@
       <c r="S617" s="1"/>
       <c r="T617" s="1"/>
     </row>
-    <row r="618" spans="1:20">
+    <row r="618" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
@@ -14464,7 +14477,7 @@
       <c r="S618" s="1"/>
       <c r="T618" s="1"/>
     </row>
-    <row r="619" spans="1:20">
+    <row r="619" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
@@ -14486,7 +14499,7 @@
       <c r="S619" s="1"/>
       <c r="T619" s="1"/>
     </row>
-    <row r="620" spans="1:20">
+    <row r="620" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
@@ -14508,7 +14521,7 @@
       <c r="S620" s="1"/>
       <c r="T620" s="1"/>
     </row>
-    <row r="621" spans="1:20">
+    <row r="621" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
@@ -14530,7 +14543,7 @@
       <c r="S621" s="1"/>
       <c r="T621" s="1"/>
     </row>
-    <row r="622" spans="1:20">
+    <row r="622" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
@@ -14552,7 +14565,7 @@
       <c r="S622" s="1"/>
       <c r="T622" s="1"/>
     </row>
-    <row r="623" spans="1:20">
+    <row r="623" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
@@ -14574,7 +14587,7 @@
       <c r="S623" s="1"/>
       <c r="T623" s="1"/>
     </row>
-    <row r="624" spans="1:20">
+    <row r="624" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
@@ -14596,7 +14609,7 @@
       <c r="S624" s="1"/>
       <c r="T624" s="1"/>
     </row>
-    <row r="625" spans="1:20">
+    <row r="625" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
@@ -14618,7 +14631,7 @@
       <c r="S625" s="1"/>
       <c r="T625" s="1"/>
     </row>
-    <row r="626" spans="1:20">
+    <row r="626" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
@@ -14640,7 +14653,7 @@
       <c r="S626" s="1"/>
       <c r="T626" s="1"/>
     </row>
-    <row r="627" spans="1:20">
+    <row r="627" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
@@ -14662,7 +14675,7 @@
       <c r="S627" s="1"/>
       <c r="T627" s="1"/>
     </row>
-    <row r="628" spans="1:20">
+    <row r="628" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
@@ -14684,7 +14697,7 @@
       <c r="S628" s="1"/>
       <c r="T628" s="1"/>
     </row>
-    <row r="629" spans="1:20">
+    <row r="629" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
@@ -14706,7 +14719,7 @@
       <c r="S629" s="1"/>
       <c r="T629" s="1"/>
     </row>
-    <row r="630" spans="1:20">
+    <row r="630" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
@@ -14728,7 +14741,7 @@
       <c r="S630" s="1"/>
       <c r="T630" s="1"/>
     </row>
-    <row r="631" spans="1:20">
+    <row r="631" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
@@ -14750,7 +14763,7 @@
       <c r="S631" s="1"/>
       <c r="T631" s="1"/>
     </row>
-    <row r="632" spans="1:20">
+    <row r="632" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
@@ -14772,7 +14785,7 @@
       <c r="S632" s="1"/>
       <c r="T632" s="1"/>
     </row>
-    <row r="633" spans="1:20">
+    <row r="633" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
@@ -14794,7 +14807,7 @@
       <c r="S633" s="1"/>
       <c r="T633" s="1"/>
     </row>
-    <row r="634" spans="1:20">
+    <row r="634" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
@@ -14816,7 +14829,7 @@
       <c r="S634" s="1"/>
       <c r="T634" s="1"/>
     </row>
-    <row r="635" spans="1:20">
+    <row r="635" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
@@ -14838,7 +14851,7 @@
       <c r="S635" s="1"/>
       <c r="T635" s="1"/>
     </row>
-    <row r="636" spans="1:20">
+    <row r="636" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
@@ -14860,7 +14873,7 @@
       <c r="S636" s="1"/>
       <c r="T636" s="1"/>
     </row>
-    <row r="637" spans="1:20">
+    <row r="637" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
@@ -14882,7 +14895,7 @@
       <c r="S637" s="1"/>
       <c r="T637" s="1"/>
     </row>
-    <row r="638" spans="1:20">
+    <row r="638" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
@@ -14904,7 +14917,7 @@
       <c r="S638" s="1"/>
       <c r="T638" s="1"/>
     </row>
-    <row r="639" spans="1:20">
+    <row r="639" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
@@ -14926,7 +14939,7 @@
       <c r="S639" s="1"/>
       <c r="T639" s="1"/>
     </row>
-    <row r="640" spans="1:20">
+    <row r="640" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
@@ -14948,7 +14961,7 @@
       <c r="S640" s="1"/>
       <c r="T640" s="1"/>
     </row>
-    <row r="641" spans="1:20">
+    <row r="641" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
@@ -14970,7 +14983,7 @@
       <c r="S641" s="1"/>
       <c r="T641" s="1"/>
     </row>
-    <row r="642" spans="1:20">
+    <row r="642" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
@@ -14992,7 +15005,7 @@
       <c r="S642" s="1"/>
       <c r="T642" s="1"/>
     </row>
-    <row r="643" spans="1:20">
+    <row r="643" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
@@ -15014,7 +15027,7 @@
       <c r="S643" s="1"/>
       <c r="T643" s="1"/>
     </row>
-    <row r="644" spans="1:20">
+    <row r="644" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
@@ -15036,7 +15049,7 @@
       <c r="S644" s="1"/>
       <c r="T644" s="1"/>
     </row>
-    <row r="645" spans="1:20">
+    <row r="645" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
@@ -15058,7 +15071,7 @@
       <c r="S645" s="1"/>
       <c r="T645" s="1"/>
     </row>
-    <row r="646" spans="1:20">
+    <row r="646" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
@@ -15080,7 +15093,7 @@
       <c r="S646" s="1"/>
       <c r="T646" s="1"/>
     </row>
-    <row r="647" spans="1:20">
+    <row r="647" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
@@ -15102,7 +15115,7 @@
       <c r="S647" s="1"/>
       <c r="T647" s="1"/>
     </row>
-    <row r="648" spans="1:20">
+    <row r="648" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
@@ -15124,7 +15137,7 @@
       <c r="S648" s="1"/>
       <c r="T648" s="1"/>
     </row>
-    <row r="649" spans="1:20">
+    <row r="649" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
@@ -15146,7 +15159,7 @@
       <c r="S649" s="1"/>
       <c r="T649" s="1"/>
     </row>
-    <row r="650" spans="1:20">
+    <row r="650" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
@@ -15168,7 +15181,7 @@
       <c r="S650" s="1"/>
       <c r="T650" s="1"/>
     </row>
-    <row r="651" spans="1:20">
+    <row r="651" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
@@ -15190,7 +15203,7 @@
       <c r="S651" s="1"/>
       <c r="T651" s="1"/>
     </row>
-    <row r="652" spans="1:20">
+    <row r="652" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
@@ -15212,7 +15225,7 @@
       <c r="S652" s="1"/>
       <c r="T652" s="1"/>
     </row>
-    <row r="653" spans="1:20">
+    <row r="653" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
@@ -15234,7 +15247,7 @@
       <c r="S653" s="1"/>
       <c r="T653" s="1"/>
     </row>
-    <row r="654" spans="1:20">
+    <row r="654" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
@@ -15256,7 +15269,7 @@
       <c r="S654" s="1"/>
       <c r="T654" s="1"/>
     </row>
-    <row r="655" spans="1:20">
+    <row r="655" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
@@ -15278,7 +15291,7 @@
       <c r="S655" s="1"/>
       <c r="T655" s="1"/>
     </row>
-    <row r="656" spans="1:20">
+    <row r="656" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
@@ -15300,7 +15313,7 @@
       <c r="S656" s="1"/>
       <c r="T656" s="1"/>
     </row>
-    <row r="657" spans="1:20">
+    <row r="657" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
@@ -15322,7 +15335,7 @@
       <c r="S657" s="1"/>
       <c r="T657" s="1"/>
     </row>
-    <row r="658" spans="1:20">
+    <row r="658" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
@@ -15344,7 +15357,7 @@
       <c r="S658" s="1"/>
       <c r="T658" s="1"/>
     </row>
-    <row r="659" spans="1:20">
+    <row r="659" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
@@ -15366,7 +15379,7 @@
       <c r="S659" s="1"/>
       <c r="T659" s="1"/>
     </row>
-    <row r="660" spans="1:20">
+    <row r="660" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
@@ -15388,7 +15401,7 @@
       <c r="S660" s="1"/>
       <c r="T660" s="1"/>
     </row>
-    <row r="661" spans="1:20">
+    <row r="661" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
@@ -15410,7 +15423,7 @@
       <c r="S661" s="1"/>
       <c r="T661" s="1"/>
     </row>
-    <row r="662" spans="1:20">
+    <row r="662" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
@@ -15432,7 +15445,7 @@
       <c r="S662" s="1"/>
       <c r="T662" s="1"/>
     </row>
-    <row r="663" spans="1:20">
+    <row r="663" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
@@ -15454,7 +15467,7 @@
       <c r="S663" s="1"/>
       <c r="T663" s="1"/>
     </row>
-    <row r="664" spans="1:20">
+    <row r="664" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
@@ -15476,7 +15489,7 @@
       <c r="S664" s="1"/>
       <c r="T664" s="1"/>
     </row>
-    <row r="665" spans="1:20">
+    <row r="665" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
@@ -15498,7 +15511,7 @@
       <c r="S665" s="1"/>
       <c r="T665" s="1"/>
     </row>
-    <row r="666" spans="1:20">
+    <row r="666" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
@@ -15520,7 +15533,7 @@
       <c r="S666" s="1"/>
       <c r="T666" s="1"/>
     </row>
-    <row r="667" spans="1:20">
+    <row r="667" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
@@ -15542,7 +15555,7 @@
       <c r="S667" s="1"/>
       <c r="T667" s="1"/>
     </row>
-    <row r="668" spans="1:20">
+    <row r="668" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
@@ -15564,7 +15577,7 @@
       <c r="S668" s="1"/>
       <c r="T668" s="1"/>
     </row>
-    <row r="669" spans="1:20">
+    <row r="669" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
@@ -15586,7 +15599,7 @@
       <c r="S669" s="1"/>
       <c r="T669" s="1"/>
     </row>
-    <row r="670" spans="1:20">
+    <row r="670" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
@@ -15608,7 +15621,7 @@
       <c r="S670" s="1"/>
       <c r="T670" s="1"/>
     </row>
-    <row r="671" spans="1:20">
+    <row r="671" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
@@ -15630,7 +15643,7 @@
       <c r="S671" s="1"/>
       <c r="T671" s="1"/>
     </row>
-    <row r="672" spans="1:20">
+    <row r="672" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
@@ -15652,7 +15665,7 @@
       <c r="S672" s="1"/>
       <c r="T672" s="1"/>
     </row>
-    <row r="673" spans="1:20">
+    <row r="673" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
@@ -15674,7 +15687,7 @@
       <c r="S673" s="1"/>
       <c r="T673" s="1"/>
     </row>
-    <row r="674" spans="1:20">
+    <row r="674" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
@@ -15696,7 +15709,7 @@
       <c r="S674" s="1"/>
       <c r="T674" s="1"/>
     </row>
-    <row r="675" spans="1:20">
+    <row r="675" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
@@ -15718,7 +15731,7 @@
       <c r="S675" s="1"/>
       <c r="T675" s="1"/>
     </row>
-    <row r="676" spans="1:20">
+    <row r="676" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
@@ -15740,7 +15753,7 @@
       <c r="S676" s="1"/>
       <c r="T676" s="1"/>
     </row>
-    <row r="677" spans="1:20">
+    <row r="677" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
@@ -15762,7 +15775,7 @@
       <c r="S677" s="1"/>
       <c r="T677" s="1"/>
     </row>
-    <row r="678" spans="1:20">
+    <row r="678" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
@@ -15784,7 +15797,7 @@
       <c r="S678" s="1"/>
       <c r="T678" s="1"/>
     </row>
-    <row r="679" spans="1:20">
+    <row r="679" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
@@ -15806,7 +15819,7 @@
       <c r="S679" s="1"/>
       <c r="T679" s="1"/>
     </row>
-    <row r="680" spans="1:20">
+    <row r="680" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
@@ -15828,7 +15841,7 @@
       <c r="S680" s="1"/>
       <c r="T680" s="1"/>
     </row>
-    <row r="681" spans="1:20">
+    <row r="681" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
@@ -15850,7 +15863,7 @@
       <c r="S681" s="1"/>
       <c r="T681" s="1"/>
     </row>
-    <row r="682" spans="1:20">
+    <row r="682" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
@@ -15872,7 +15885,7 @@
       <c r="S682" s="1"/>
       <c r="T682" s="1"/>
     </row>
-    <row r="683" spans="1:20">
+    <row r="683" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
@@ -15894,7 +15907,7 @@
       <c r="S683" s="1"/>
       <c r="T683" s="1"/>
     </row>
-    <row r="684" spans="1:20">
+    <row r="684" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
@@ -15916,7 +15929,7 @@
       <c r="S684" s="1"/>
       <c r="T684" s="1"/>
     </row>
-    <row r="685" spans="1:20">
+    <row r="685" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
@@ -15938,7 +15951,7 @@
       <c r="S685" s="1"/>
       <c r="T685" s="1"/>
     </row>
-    <row r="686" spans="1:20">
+    <row r="686" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
@@ -15960,7 +15973,7 @@
       <c r="S686" s="1"/>
       <c r="T686" s="1"/>
     </row>
-    <row r="687" spans="1:20">
+    <row r="687" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
@@ -15982,7 +15995,7 @@
       <c r="S687" s="1"/>
       <c r="T687" s="1"/>
     </row>
-    <row r="688" spans="1:20">
+    <row r="688" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
@@ -16004,7 +16017,7 @@
       <c r="S688" s="1"/>
       <c r="T688" s="1"/>
     </row>
-    <row r="689" spans="1:20">
+    <row r="689" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
@@ -16026,7 +16039,7 @@
       <c r="S689" s="1"/>
       <c r="T689" s="1"/>
     </row>
-    <row r="690" spans="1:20">
+    <row r="690" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
@@ -16048,7 +16061,7 @@
       <c r="S690" s="1"/>
       <c r="T690" s="1"/>
     </row>
-    <row r="691" spans="1:20">
+    <row r="691" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
@@ -16070,7 +16083,7 @@
       <c r="S691" s="1"/>
       <c r="T691" s="1"/>
     </row>
-    <row r="692" spans="1:20">
+    <row r="692" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
@@ -16092,7 +16105,7 @@
       <c r="S692" s="1"/>
       <c r="T692" s="1"/>
     </row>
-    <row r="693" spans="1:20">
+    <row r="693" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
@@ -16114,7 +16127,7 @@
       <c r="S693" s="1"/>
       <c r="T693" s="1"/>
     </row>
-    <row r="694" spans="1:20">
+    <row r="694" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
@@ -16136,7 +16149,7 @@
       <c r="S694" s="1"/>
       <c r="T694" s="1"/>
     </row>
-    <row r="695" spans="1:20">
+    <row r="695" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
@@ -16158,7 +16171,7 @@
       <c r="S695" s="1"/>
       <c r="T695" s="1"/>
     </row>
-    <row r="696" spans="1:20">
+    <row r="696" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
@@ -16180,7 +16193,7 @@
       <c r="S696" s="1"/>
       <c r="T696" s="1"/>
     </row>
-    <row r="697" spans="1:20">
+    <row r="697" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
@@ -16202,7 +16215,7 @@
       <c r="S697" s="1"/>
       <c r="T697" s="1"/>
     </row>
-    <row r="698" spans="1:20">
+    <row r="698" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
@@ -16224,7 +16237,7 @@
       <c r="S698" s="1"/>
       <c r="T698" s="1"/>
     </row>
-    <row r="699" spans="1:20">
+    <row r="699" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
@@ -16246,7 +16259,7 @@
       <c r="S699" s="1"/>
       <c r="T699" s="1"/>
     </row>
-    <row r="700" spans="1:20">
+    <row r="700" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
@@ -16268,7 +16281,7 @@
       <c r="S700" s="1"/>
       <c r="T700" s="1"/>
     </row>
-    <row r="701" spans="1:20">
+    <row r="701" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
@@ -16290,7 +16303,7 @@
       <c r="S701" s="1"/>
       <c r="T701" s="1"/>
     </row>
-    <row r="702" spans="1:20">
+    <row r="702" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
@@ -16312,7 +16325,7 @@
       <c r="S702" s="1"/>
       <c r="T702" s="1"/>
     </row>
-    <row r="703" spans="1:20">
+    <row r="703" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
@@ -16334,7 +16347,7 @@
       <c r="S703" s="1"/>
       <c r="T703" s="1"/>
     </row>
-    <row r="704" spans="1:20">
+    <row r="704" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
@@ -16356,7 +16369,7 @@
       <c r="S704" s="1"/>
       <c r="T704" s="1"/>
     </row>
-    <row r="705" spans="1:20">
+    <row r="705" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
@@ -16378,7 +16391,7 @@
       <c r="S705" s="1"/>
       <c r="T705" s="1"/>
     </row>
-    <row r="706" spans="1:20">
+    <row r="706" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
@@ -16400,7 +16413,7 @@
       <c r="S706" s="1"/>
       <c r="T706" s="1"/>
     </row>
-    <row r="707" spans="1:20">
+    <row r="707" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
@@ -16422,7 +16435,7 @@
       <c r="S707" s="1"/>
       <c r="T707" s="1"/>
     </row>
-    <row r="708" spans="1:20">
+    <row r="708" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
@@ -16444,7 +16457,7 @@
       <c r="S708" s="1"/>
       <c r="T708" s="1"/>
     </row>
-    <row r="709" spans="1:20">
+    <row r="709" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
@@ -16466,7 +16479,7 @@
       <c r="S709" s="1"/>
       <c r="T709" s="1"/>
     </row>
-    <row r="710" spans="1:20">
+    <row r="710" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
@@ -16488,7 +16501,7 @@
       <c r="S710" s="1"/>
       <c r="T710" s="1"/>
     </row>
-    <row r="711" spans="1:20">
+    <row r="711" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
@@ -16510,7 +16523,7 @@
       <c r="S711" s="1"/>
       <c r="T711" s="1"/>
     </row>
-    <row r="712" spans="1:20">
+    <row r="712" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
@@ -16532,7 +16545,7 @@
       <c r="S712" s="1"/>
       <c r="T712" s="1"/>
     </row>
-    <row r="713" spans="1:20">
+    <row r="713" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
@@ -16554,7 +16567,7 @@
       <c r="S713" s="1"/>
       <c r="T713" s="1"/>
     </row>
-    <row r="714" spans="1:20">
+    <row r="714" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
@@ -16576,7 +16589,7 @@
       <c r="S714" s="1"/>
       <c r="T714" s="1"/>
     </row>
-    <row r="715" spans="1:20">
+    <row r="715" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
@@ -16598,7 +16611,7 @@
       <c r="S715" s="1"/>
       <c r="T715" s="1"/>
     </row>
-    <row r="716" spans="1:20">
+    <row r="716" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
@@ -16620,7 +16633,7 @@
       <c r="S716" s="1"/>
       <c r="T716" s="1"/>
     </row>
-    <row r="717" spans="1:20">
+    <row r="717" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
@@ -16642,7 +16655,7 @@
       <c r="S717" s="1"/>
       <c r="T717" s="1"/>
     </row>
-    <row r="718" spans="1:20">
+    <row r="718" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
@@ -16664,7 +16677,7 @@
       <c r="S718" s="1"/>
       <c r="T718" s="1"/>
     </row>
-    <row r="719" spans="1:20">
+    <row r="719" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
@@ -16686,7 +16699,7 @@
       <c r="S719" s="1"/>
       <c r="T719" s="1"/>
     </row>
-    <row r="720" spans="1:20">
+    <row r="720" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
@@ -16708,7 +16721,7 @@
       <c r="S720" s="1"/>
       <c r="T720" s="1"/>
     </row>
-    <row r="721" spans="1:20">
+    <row r="721" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
@@ -16730,7 +16743,7 @@
       <c r="S721" s="1"/>
       <c r="T721" s="1"/>
     </row>
-    <row r="722" spans="1:20">
+    <row r="722" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
@@ -16752,7 +16765,7 @@
       <c r="S722" s="1"/>
       <c r="T722" s="1"/>
     </row>
-    <row r="723" spans="1:20">
+    <row r="723" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
@@ -16774,7 +16787,7 @@
       <c r="S723" s="1"/>
       <c r="T723" s="1"/>
     </row>
-    <row r="724" spans="1:20">
+    <row r="724" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
@@ -16796,7 +16809,7 @@
       <c r="S724" s="1"/>
       <c r="T724" s="1"/>
     </row>
-    <row r="725" spans="1:20">
+    <row r="725" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
@@ -16818,7 +16831,7 @@
       <c r="S725" s="1"/>
       <c r="T725" s="1"/>
     </row>
-    <row r="726" spans="1:20">
+    <row r="726" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
@@ -16840,7 +16853,7 @@
       <c r="S726" s="1"/>
       <c r="T726" s="1"/>
     </row>
-    <row r="727" spans="1:20">
+    <row r="727" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
@@ -16862,7 +16875,7 @@
       <c r="S727" s="1"/>
       <c r="T727" s="1"/>
     </row>
-    <row r="728" spans="1:20">
+    <row r="728" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
@@ -16884,7 +16897,7 @@
       <c r="S728" s="1"/>
       <c r="T728" s="1"/>
     </row>
-    <row r="729" spans="1:20">
+    <row r="729" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
@@ -16906,7 +16919,7 @@
       <c r="S729" s="1"/>
       <c r="T729" s="1"/>
     </row>
-    <row r="730" spans="1:20">
+    <row r="730" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
@@ -16928,7 +16941,7 @@
       <c r="S730" s="1"/>
       <c r="T730" s="1"/>
     </row>
-    <row r="731" spans="1:20">
+    <row r="731" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
@@ -16950,7 +16963,7 @@
       <c r="S731" s="1"/>
       <c r="T731" s="1"/>
     </row>
-    <row r="732" spans="1:20">
+    <row r="732" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
@@ -16972,7 +16985,7 @@
       <c r="S732" s="1"/>
       <c r="T732" s="1"/>
     </row>
-    <row r="733" spans="1:20">
+    <row r="733" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
@@ -16994,7 +17007,7 @@
       <c r="S733" s="1"/>
       <c r="T733" s="1"/>
     </row>
-    <row r="734" spans="1:20">
+    <row r="734" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
@@ -17016,7 +17029,7 @@
       <c r="S734" s="1"/>
       <c r="T734" s="1"/>
     </row>
-    <row r="735" spans="1:20">
+    <row r="735" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
@@ -17038,7 +17051,7 @@
       <c r="S735" s="1"/>
       <c r="T735" s="1"/>
     </row>
-    <row r="736" spans="1:20">
+    <row r="736" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
@@ -17060,7 +17073,7 @@
       <c r="S736" s="1"/>
       <c r="T736" s="1"/>
     </row>
-    <row r="737" spans="1:20">
+    <row r="737" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
@@ -17082,7 +17095,7 @@
       <c r="S737" s="1"/>
       <c r="T737" s="1"/>
     </row>
-    <row r="738" spans="1:20">
+    <row r="738" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
@@ -17104,7 +17117,7 @@
       <c r="S738" s="1"/>
       <c r="T738" s="1"/>
     </row>
-    <row r="739" spans="1:20">
+    <row r="739" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
@@ -17126,7 +17139,7 @@
       <c r="S739" s="1"/>
       <c r="T739" s="1"/>
     </row>
-    <row r="740" spans="1:20">
+    <row r="740" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
@@ -17148,7 +17161,7 @@
       <c r="S740" s="1"/>
       <c r="T740" s="1"/>
     </row>
-    <row r="741" spans="1:20">
+    <row r="741" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
@@ -17170,7 +17183,7 @@
       <c r="S741" s="1"/>
       <c r="T741" s="1"/>
     </row>
-    <row r="742" spans="1:20">
+    <row r="742" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
@@ -17192,7 +17205,7 @@
       <c r="S742" s="1"/>
       <c r="T742" s="1"/>
     </row>
-    <row r="743" spans="1:20">
+    <row r="743" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
@@ -17214,7 +17227,7 @@
       <c r="S743" s="1"/>
       <c r="T743" s="1"/>
     </row>
-    <row r="744" spans="1:20">
+    <row r="744" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
@@ -17236,7 +17249,7 @@
       <c r="S744" s="1"/>
       <c r="T744" s="1"/>
     </row>
-    <row r="745" spans="1:20">
+    <row r="745" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
@@ -17258,7 +17271,7 @@
       <c r="S745" s="1"/>
       <c r="T745" s="1"/>
     </row>
-    <row r="746" spans="1:20">
+    <row r="746" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
@@ -17280,7 +17293,7 @@
       <c r="S746" s="1"/>
       <c r="T746" s="1"/>
     </row>
-    <row r="747" spans="1:20">
+    <row r="747" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
@@ -17302,7 +17315,7 @@
       <c r="S747" s="1"/>
       <c r="T747" s="1"/>
     </row>
-    <row r="748" spans="1:20">
+    <row r="748" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
@@ -17324,7 +17337,7 @@
       <c r="S748" s="1"/>
       <c r="T748" s="1"/>
     </row>
-    <row r="749" spans="1:20">
+    <row r="749" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
@@ -17346,7 +17359,7 @@
       <c r="S749" s="1"/>
       <c r="T749" s="1"/>
     </row>
-    <row r="750" spans="1:20">
+    <row r="750" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
@@ -17368,7 +17381,7 @@
       <c r="S750" s="1"/>
       <c r="T750" s="1"/>
     </row>
-    <row r="751" spans="1:20">
+    <row r="751" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
@@ -17390,7 +17403,7 @@
       <c r="S751" s="1"/>
       <c r="T751" s="1"/>
     </row>
-    <row r="752" spans="1:20">
+    <row r="752" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
@@ -17412,7 +17425,7 @@
       <c r="S752" s="1"/>
       <c r="T752" s="1"/>
     </row>
-    <row r="753" spans="1:20">
+    <row r="753" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
@@ -17434,7 +17447,7 @@
       <c r="S753" s="1"/>
       <c r="T753" s="1"/>
     </row>
-    <row r="754" spans="1:20">
+    <row r="754" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
@@ -17456,7 +17469,7 @@
       <c r="S754" s="1"/>
       <c r="T754" s="1"/>
     </row>
-    <row r="755" spans="1:20">
+    <row r="755" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
@@ -17478,7 +17491,7 @@
       <c r="S755" s="1"/>
       <c r="T755" s="1"/>
     </row>
-    <row r="756" spans="1:20">
+    <row r="756" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
@@ -17500,7 +17513,7 @@
       <c r="S756" s="1"/>
       <c r="T756" s="1"/>
     </row>
-    <row r="757" spans="1:20">
+    <row r="757" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
@@ -17522,7 +17535,7 @@
       <c r="S757" s="1"/>
       <c r="T757" s="1"/>
     </row>
-    <row r="758" spans="1:20">
+    <row r="758" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
@@ -17544,7 +17557,7 @@
       <c r="S758" s="1"/>
       <c r="T758" s="1"/>
     </row>
-    <row r="759" spans="1:20">
+    <row r="759" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
@@ -17566,7 +17579,7 @@
       <c r="S759" s="1"/>
       <c r="T759" s="1"/>
     </row>
-    <row r="760" spans="1:20">
+    <row r="760" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
@@ -17588,7 +17601,7 @@
       <c r="S760" s="1"/>
       <c r="T760" s="1"/>
     </row>
-    <row r="761" spans="1:20">
+    <row r="761" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
@@ -17610,7 +17623,7 @@
       <c r="S761" s="1"/>
       <c r="T761" s="1"/>
     </row>
-    <row r="762" spans="1:20">
+    <row r="762" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
@@ -17632,7 +17645,7 @@
       <c r="S762" s="1"/>
       <c r="T762" s="1"/>
     </row>
-    <row r="763" spans="1:20">
+    <row r="763" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
@@ -17654,7 +17667,7 @@
       <c r="S763" s="1"/>
       <c r="T763" s="1"/>
     </row>
-    <row r="764" spans="1:20">
+    <row r="764" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
@@ -17676,7 +17689,7 @@
       <c r="S764" s="1"/>
       <c r="T764" s="1"/>
     </row>
-    <row r="765" spans="1:20">
+    <row r="765" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
@@ -17698,7 +17711,7 @@
       <c r="S765" s="1"/>
       <c r="T765" s="1"/>
     </row>
-    <row r="766" spans="1:20">
+    <row r="766" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
@@ -17720,7 +17733,7 @@
       <c r="S766" s="1"/>
       <c r="T766" s="1"/>
     </row>
-    <row r="767" spans="1:20">
+    <row r="767" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
@@ -17742,7 +17755,7 @@
       <c r="S767" s="1"/>
       <c r="T767" s="1"/>
     </row>
-    <row r="768" spans="1:20">
+    <row r="768" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
@@ -17764,7 +17777,7 @@
       <c r="S768" s="1"/>
       <c r="T768" s="1"/>
     </row>
-    <row r="769" spans="1:20">
+    <row r="769" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
@@ -17786,7 +17799,7 @@
       <c r="S769" s="1"/>
       <c r="T769" s="1"/>
     </row>
-    <row r="770" spans="1:20">
+    <row r="770" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
@@ -17808,7 +17821,7 @@
       <c r="S770" s="1"/>
       <c r="T770" s="1"/>
     </row>
-    <row r="771" spans="1:20">
+    <row r="771" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
@@ -17830,7 +17843,7 @@
       <c r="S771" s="1"/>
       <c r="T771" s="1"/>
     </row>
-    <row r="772" spans="1:20">
+    <row r="772" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
@@ -17852,7 +17865,7 @@
       <c r="S772" s="1"/>
       <c r="T772" s="1"/>
     </row>
-    <row r="773" spans="1:20">
+    <row r="773" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
@@ -17874,7 +17887,7 @@
       <c r="S773" s="1"/>
       <c r="T773" s="1"/>
     </row>
-    <row r="774" spans="1:20">
+    <row r="774" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
@@ -17896,7 +17909,7 @@
       <c r="S774" s="1"/>
       <c r="T774" s="1"/>
     </row>
-    <row r="775" spans="1:20">
+    <row r="775" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
@@ -17918,7 +17931,7 @@
       <c r="S775" s="1"/>
       <c r="T775" s="1"/>
     </row>
-    <row r="776" spans="1:20">
+    <row r="776" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
@@ -17940,7 +17953,7 @@
       <c r="S776" s="1"/>
       <c r="T776" s="1"/>
     </row>
-    <row r="777" spans="1:20">
+    <row r="777" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
@@ -17962,7 +17975,7 @@
       <c r="S777" s="1"/>
       <c r="T777" s="1"/>
     </row>
-    <row r="778" spans="1:20">
+    <row r="778" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
@@ -17984,7 +17997,7 @@
       <c r="S778" s="1"/>
       <c r="T778" s="1"/>
     </row>
-    <row r="779" spans="1:20">
+    <row r="779" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
@@ -18006,7 +18019,7 @@
       <c r="S779" s="1"/>
       <c r="T779" s="1"/>
     </row>
-    <row r="780" spans="1:20">
+    <row r="780" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
@@ -18028,7 +18041,7 @@
       <c r="S780" s="1"/>
       <c r="T780" s="1"/>
     </row>
-    <row r="781" spans="1:20">
+    <row r="781" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
@@ -18050,7 +18063,7 @@
       <c r="S781" s="1"/>
       <c r="T781" s="1"/>
     </row>
-    <row r="782" spans="1:20">
+    <row r="782" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
@@ -18072,7 +18085,7 @@
       <c r="S782" s="1"/>
       <c r="T782" s="1"/>
     </row>
-    <row r="783" spans="1:20">
+    <row r="783" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
@@ -18094,7 +18107,7 @@
       <c r="S783" s="1"/>
       <c r="T783" s="1"/>
     </row>
-    <row r="784" spans="1:20">
+    <row r="784" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
@@ -18116,7 +18129,7 @@
       <c r="S784" s="1"/>
       <c r="T784" s="1"/>
     </row>
-    <row r="785" spans="1:20">
+    <row r="785" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
@@ -18138,7 +18151,7 @@
       <c r="S785" s="1"/>
       <c r="T785" s="1"/>
     </row>
-    <row r="786" spans="1:20">
+    <row r="786" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
@@ -18160,7 +18173,7 @@
       <c r="S786" s="1"/>
       <c r="T786" s="1"/>
     </row>
-    <row r="787" spans="1:20">
+    <row r="787" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
@@ -18182,7 +18195,7 @@
       <c r="S787" s="1"/>
       <c r="T787" s="1"/>
     </row>
-    <row r="788" spans="1:20">
+    <row r="788" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
@@ -18204,7 +18217,7 @@
       <c r="S788" s="1"/>
       <c r="T788" s="1"/>
     </row>
-    <row r="789" spans="1:20">
+    <row r="789" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
@@ -18226,7 +18239,7 @@
       <c r="S789" s="1"/>
       <c r="T789" s="1"/>
     </row>
-    <row r="790" spans="1:20">
+    <row r="790" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
@@ -18248,7 +18261,7 @@
       <c r="S790" s="1"/>
       <c r="T790" s="1"/>
     </row>
-    <row r="791" spans="1:20">
+    <row r="791" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
@@ -18270,7 +18283,7 @@
       <c r="S791" s="1"/>
       <c r="T791" s="1"/>
     </row>
-    <row r="792" spans="1:20">
+    <row r="792" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
@@ -18292,7 +18305,7 @@
       <c r="S792" s="1"/>
       <c r="T792" s="1"/>
     </row>
-    <row r="793" spans="1:20">
+    <row r="793" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
@@ -18314,7 +18327,7 @@
       <c r="S793" s="1"/>
       <c r="T793" s="1"/>
     </row>
-    <row r="794" spans="1:20">
+    <row r="794" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
@@ -18336,7 +18349,7 @@
       <c r="S794" s="1"/>
       <c r="T794" s="1"/>
     </row>
-    <row r="795" spans="1:20">
+    <row r="795" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
@@ -18358,7 +18371,7 @@
       <c r="S795" s="1"/>
       <c r="T795" s="1"/>
     </row>
-    <row r="796" spans="1:20">
+    <row r="796" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
@@ -18380,7 +18393,7 @@
       <c r="S796" s="1"/>
       <c r="T796" s="1"/>
     </row>
-    <row r="797" spans="1:20">
+    <row r="797" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
@@ -18402,7 +18415,7 @@
       <c r="S797" s="1"/>
       <c r="T797" s="1"/>
     </row>
-    <row r="798" spans="1:20">
+    <row r="798" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
@@ -18424,7 +18437,7 @@
       <c r="S798" s="1"/>
       <c r="T798" s="1"/>
     </row>
-    <row r="799" spans="1:20">
+    <row r="799" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
@@ -18446,7 +18459,7 @@
       <c r="S799" s="1"/>
       <c r="T799" s="1"/>
     </row>
-    <row r="800" spans="1:20">
+    <row r="800" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
@@ -18468,7 +18481,7 @@
       <c r="S800" s="1"/>
       <c r="T800" s="1"/>
     </row>
-    <row r="801" spans="1:20">
+    <row r="801" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
@@ -18490,7 +18503,7 @@
       <c r="S801" s="1"/>
       <c r="T801" s="1"/>
     </row>
-    <row r="802" spans="1:20">
+    <row r="802" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
@@ -18512,7 +18525,7 @@
       <c r="S802" s="1"/>
       <c r="T802" s="1"/>
     </row>
-    <row r="803" spans="1:20">
+    <row r="803" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
@@ -18534,7 +18547,7 @@
       <c r="S803" s="1"/>
       <c r="T803" s="1"/>
     </row>
-    <row r="804" spans="1:20">
+    <row r="804" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
@@ -18556,7 +18569,7 @@
       <c r="S804" s="1"/>
       <c r="T804" s="1"/>
     </row>
-    <row r="805" spans="1:20">
+    <row r="805" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
@@ -18578,7 +18591,7 @@
       <c r="S805" s="1"/>
       <c r="T805" s="1"/>
     </row>
-    <row r="806" spans="1:20">
+    <row r="806" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
@@ -18600,7 +18613,7 @@
       <c r="S806" s="1"/>
       <c r="T806" s="1"/>
     </row>
-    <row r="807" spans="1:20">
+    <row r="807" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
@@ -18622,7 +18635,7 @@
       <c r="S807" s="1"/>
       <c r="T807" s="1"/>
     </row>
-    <row r="808" spans="1:20">
+    <row r="808" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
@@ -18644,7 +18657,7 @@
       <c r="S808" s="1"/>
       <c r="T808" s="1"/>
     </row>
-    <row r="809" spans="1:20">
+    <row r="809" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
@@ -18666,7 +18679,7 @@
       <c r="S809" s="1"/>
       <c r="T809" s="1"/>
     </row>
-    <row r="810" spans="1:20">
+    <row r="810" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
@@ -18688,7 +18701,7 @@
       <c r="S810" s="1"/>
       <c r="T810" s="1"/>
     </row>
-    <row r="811" spans="1:20">
+    <row r="811" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
@@ -18710,7 +18723,7 @@
       <c r="S811" s="1"/>
       <c r="T811" s="1"/>
     </row>
-    <row r="812" spans="1:20">
+    <row r="812" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
@@ -18732,7 +18745,7 @@
       <c r="S812" s="1"/>
       <c r="T812" s="1"/>
     </row>
-    <row r="813" spans="1:20">
+    <row r="813" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
@@ -18754,7 +18767,7 @@
       <c r="S813" s="1"/>
       <c r="T813" s="1"/>
     </row>
-    <row r="814" spans="1:20">
+    <row r="814" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
@@ -18776,7 +18789,7 @@
       <c r="S814" s="1"/>
       <c r="T814" s="1"/>
     </row>
-    <row r="815" spans="1:20">
+    <row r="815" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
@@ -18798,7 +18811,7 @@
       <c r="S815" s="1"/>
       <c r="T815" s="1"/>
     </row>
-    <row r="816" spans="1:20">
+    <row r="816" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
@@ -18820,7 +18833,7 @@
       <c r="S816" s="1"/>
       <c r="T816" s="1"/>
     </row>
-    <row r="817" spans="1:20">
+    <row r="817" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
@@ -18842,7 +18855,7 @@
       <c r="S817" s="1"/>
       <c r="T817" s="1"/>
     </row>
-    <row r="818" spans="1:20">
+    <row r="818" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
@@ -18864,7 +18877,7 @@
       <c r="S818" s="1"/>
       <c r="T818" s="1"/>
     </row>
-    <row r="819" spans="1:20">
+    <row r="819" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
@@ -18886,7 +18899,7 @@
       <c r="S819" s="1"/>
       <c r="T819" s="1"/>
     </row>
-    <row r="820" spans="1:20">
+    <row r="820" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
@@ -18908,7 +18921,7 @@
       <c r="S820" s="1"/>
       <c r="T820" s="1"/>
     </row>
-    <row r="821" spans="1:20">
+    <row r="821" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
@@ -18930,7 +18943,7 @@
       <c r="S821" s="1"/>
       <c r="T821" s="1"/>
     </row>
-    <row r="822" spans="1:20">
+    <row r="822" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
@@ -18952,7 +18965,7 @@
       <c r="S822" s="1"/>
       <c r="T822" s="1"/>
     </row>
-    <row r="823" spans="1:20">
+    <row r="823" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
@@ -18974,7 +18987,7 @@
       <c r="S823" s="1"/>
       <c r="T823" s="1"/>
     </row>
-    <row r="824" spans="1:20">
+    <row r="824" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
@@ -18996,7 +19009,7 @@
       <c r="S824" s="1"/>
       <c r="T824" s="1"/>
     </row>
-    <row r="825" spans="1:20">
+    <row r="825" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
@@ -19018,7 +19031,7 @@
       <c r="S825" s="1"/>
       <c r="T825" s="1"/>
     </row>
-    <row r="826" spans="1:20">
+    <row r="826" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
@@ -19040,7 +19053,7 @@
       <c r="S826" s="1"/>
       <c r="T826" s="1"/>
     </row>
-    <row r="827" spans="1:20">
+    <row r="827" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
@@ -19062,7 +19075,7 @@
       <c r="S827" s="1"/>
       <c r="T827" s="1"/>
     </row>
-    <row r="828" spans="1:20">
+    <row r="828" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
@@ -19084,7 +19097,7 @@
       <c r="S828" s="1"/>
       <c r="T828" s="1"/>
     </row>
-    <row r="829" spans="1:20">
+    <row r="829" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
@@ -19106,7 +19119,7 @@
       <c r="S829" s="1"/>
       <c r="T829" s="1"/>
     </row>
-    <row r="830" spans="1:20">
+    <row r="830" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
@@ -19128,7 +19141,7 @@
       <c r="S830" s="1"/>
       <c r="T830" s="1"/>
     </row>
-    <row r="831" spans="1:20">
+    <row r="831" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
@@ -19150,7 +19163,7 @@
       <c r="S831" s="1"/>
       <c r="T831" s="1"/>
     </row>
-    <row r="832" spans="1:20">
+    <row r="832" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
@@ -19172,7 +19185,7 @@
       <c r="S832" s="1"/>
       <c r="T832" s="1"/>
     </row>
-    <row r="833" spans="1:20">
+    <row r="833" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
@@ -19194,7 +19207,7 @@
       <c r="S833" s="1"/>
       <c r="T833" s="1"/>
     </row>
-    <row r="834" spans="1:20">
+    <row r="834" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
@@ -19216,7 +19229,7 @@
       <c r="S834" s="1"/>
       <c r="T834" s="1"/>
     </row>
-    <row r="835" spans="1:20">
+    <row r="835" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
@@ -19238,7 +19251,7 @@
       <c r="S835" s="1"/>
       <c r="T835" s="1"/>
     </row>
-    <row r="836" spans="1:20">
+    <row r="836" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
@@ -19260,7 +19273,7 @@
       <c r="S836" s="1"/>
       <c r="T836" s="1"/>
     </row>
-    <row r="837" spans="1:20">
+    <row r="837" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
@@ -19282,7 +19295,7 @@
       <c r="S837" s="1"/>
       <c r="T837" s="1"/>
     </row>
-    <row r="838" spans="1:20">
+    <row r="838" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
@@ -19304,7 +19317,7 @@
       <c r="S838" s="1"/>
       <c r="T838" s="1"/>
     </row>
-    <row r="839" spans="1:20">
+    <row r="839" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
@@ -19326,7 +19339,7 @@
       <c r="S839" s="1"/>
       <c r="T839" s="1"/>
     </row>
-    <row r="840" spans="1:20">
+    <row r="840" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
@@ -19348,7 +19361,7 @@
       <c r="S840" s="1"/>
       <c r="T840" s="1"/>
     </row>
-    <row r="841" spans="1:20">
+    <row r="841" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
@@ -19370,7 +19383,7 @@
       <c r="S841" s="1"/>
       <c r="T841" s="1"/>
     </row>
-    <row r="842" spans="1:20">
+    <row r="842" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
@@ -19392,7 +19405,7 @@
       <c r="S842" s="1"/>
       <c r="T842" s="1"/>
     </row>
-    <row r="843" spans="1:20">
+    <row r="843" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
@@ -19414,7 +19427,7 @@
       <c r="S843" s="1"/>
       <c r="T843" s="1"/>
     </row>
-    <row r="844" spans="1:20">
+    <row r="844" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
@@ -19436,7 +19449,7 @@
       <c r="S844" s="1"/>
       <c r="T844" s="1"/>
     </row>
-    <row r="845" spans="1:20">
+    <row r="845" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
@@ -19458,7 +19471,7 @@
       <c r="S845" s="1"/>
       <c r="T845" s="1"/>
     </row>
-    <row r="846" spans="1:20">
+    <row r="846" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
@@ -19480,7 +19493,7 @@
       <c r="S846" s="1"/>
       <c r="T846" s="1"/>
     </row>
-    <row r="847" spans="1:20">
+    <row r="847" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
@@ -19502,7 +19515,7 @@
       <c r="S847" s="1"/>
       <c r="T847" s="1"/>
     </row>
-    <row r="848" spans="1:20">
+    <row r="848" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
@@ -19524,7 +19537,7 @@
       <c r="S848" s="1"/>
       <c r="T848" s="1"/>
     </row>
-    <row r="849" spans="1:20">
+    <row r="849" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
@@ -19546,7 +19559,7 @@
       <c r="S849" s="1"/>
       <c r="T849" s="1"/>
     </row>
-    <row r="850" spans="1:20">
+    <row r="850" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
@@ -19568,7 +19581,7 @@
       <c r="S850" s="1"/>
       <c r="T850" s="1"/>
     </row>
-    <row r="851" spans="1:20">
+    <row r="851" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
@@ -19590,7 +19603,7 @@
       <c r="S851" s="1"/>
       <c r="T851" s="1"/>
     </row>
-    <row r="852" spans="1:20">
+    <row r="852" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
@@ -19612,7 +19625,7 @@
       <c r="S852" s="1"/>
       <c r="T852" s="1"/>
     </row>
-    <row r="853" spans="1:20">
+    <row r="853" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
@@ -19634,7 +19647,7 @@
       <c r="S853" s="1"/>
       <c r="T853" s="1"/>
     </row>
-    <row r="854" spans="1:20">
+    <row r="854" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
@@ -19656,7 +19669,7 @@
       <c r="S854" s="1"/>
       <c r="T854" s="1"/>
     </row>
-    <row r="855" spans="1:20">
+    <row r="855" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
@@ -19678,7 +19691,7 @@
       <c r="S855" s="1"/>
       <c r="T855" s="1"/>
     </row>
-    <row r="856" spans="1:20">
+    <row r="856" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
@@ -19700,7 +19713,7 @@
       <c r="S856" s="1"/>
       <c r="T856" s="1"/>
     </row>
-    <row r="857" spans="1:20">
+    <row r="857" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
@@ -19722,7 +19735,7 @@
       <c r="S857" s="1"/>
       <c r="T857" s="1"/>
     </row>
-    <row r="858" spans="1:20">
+    <row r="858" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
@@ -19744,7 +19757,7 @@
       <c r="S858" s="1"/>
       <c r="T858" s="1"/>
     </row>
-    <row r="859" spans="1:20">
+    <row r="859" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
@@ -19766,7 +19779,7 @@
       <c r="S859" s="1"/>
       <c r="T859" s="1"/>
     </row>
-    <row r="860" spans="1:20">
+    <row r="860" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
@@ -19788,7 +19801,7 @@
       <c r="S860" s="1"/>
       <c r="T860" s="1"/>
     </row>
-    <row r="861" spans="1:20">
+    <row r="861" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
@@ -19810,7 +19823,7 @@
       <c r="S861" s="1"/>
       <c r="T861" s="1"/>
     </row>
-    <row r="862" spans="1:20">
+    <row r="862" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
@@ -19832,7 +19845,7 @@
       <c r="S862" s="1"/>
       <c r="T862" s="1"/>
     </row>
-    <row r="863" spans="1:20">
+    <row r="863" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
@@ -19854,7 +19867,7 @@
       <c r="S863" s="1"/>
       <c r="T863" s="1"/>
     </row>
-    <row r="864" spans="1:20">
+    <row r="864" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
@@ -19876,7 +19889,7 @@
       <c r="S864" s="1"/>
       <c r="T864" s="1"/>
     </row>
-    <row r="865" spans="1:20">
+    <row r="865" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
@@ -19898,7 +19911,7 @@
       <c r="S865" s="1"/>
       <c r="T865" s="1"/>
     </row>
-    <row r="866" spans="1:20">
+    <row r="866" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
@@ -19920,7 +19933,7 @@
       <c r="S866" s="1"/>
       <c r="T866" s="1"/>
     </row>
-    <row r="867" spans="1:20">
+    <row r="867" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
@@ -19942,7 +19955,7 @@
       <c r="S867" s="1"/>
       <c r="T867" s="1"/>
     </row>
-    <row r="868" spans="1:20">
+    <row r="868" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
@@ -19964,7 +19977,7 @@
       <c r="S868" s="1"/>
       <c r="T868" s="1"/>
     </row>
-    <row r="869" spans="1:20">
+    <row r="869" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
@@ -19986,7 +19999,7 @@
       <c r="S869" s="1"/>
       <c r="T869" s="1"/>
     </row>
-    <row r="870" spans="1:20">
+    <row r="870" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
@@ -20008,7 +20021,7 @@
       <c r="S870" s="1"/>
       <c r="T870" s="1"/>
     </row>
-    <row r="871" spans="1:20">
+    <row r="871" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
@@ -20030,7 +20043,7 @@
       <c r="S871" s="1"/>
       <c r="T871" s="1"/>
     </row>
-    <row r="872" spans="1:20">
+    <row r="872" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
@@ -20052,7 +20065,7 @@
       <c r="S872" s="1"/>
       <c r="T872" s="1"/>
     </row>
-    <row r="873" spans="1:20">
+    <row r="873" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
@@ -20074,7 +20087,7 @@
       <c r="S873" s="1"/>
       <c r="T873" s="1"/>
     </row>
-    <row r="874" spans="1:20">
+    <row r="874" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
@@ -20096,7 +20109,7 @@
       <c r="S874" s="1"/>
       <c r="T874" s="1"/>
     </row>
-    <row r="875" spans="1:20">
+    <row r="875" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
@@ -20118,7 +20131,7 @@
       <c r="S875" s="1"/>
       <c r="T875" s="1"/>
     </row>
-    <row r="876" spans="1:20">
+    <row r="876" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
@@ -20140,7 +20153,7 @@
       <c r="S876" s="1"/>
       <c r="T876" s="1"/>
     </row>
-    <row r="877" spans="1:20">
+    <row r="877" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
@@ -20162,7 +20175,7 @@
       <c r="S877" s="1"/>
       <c r="T877" s="1"/>
     </row>
-    <row r="878" spans="1:20">
+    <row r="878" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
@@ -20184,7 +20197,7 @@
       <c r="S878" s="1"/>
       <c r="T878" s="1"/>
     </row>
-    <row r="879" spans="1:20">
+    <row r="879" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
@@ -20206,7 +20219,7 @@
       <c r="S879" s="1"/>
       <c r="T879" s="1"/>
     </row>
-    <row r="880" spans="1:20">
+    <row r="880" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
@@ -20228,7 +20241,7 @@
       <c r="S880" s="1"/>
       <c r="T880" s="1"/>
     </row>
-    <row r="881" spans="1:20">
+    <row r="881" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
@@ -20250,7 +20263,7 @@
       <c r="S881" s="1"/>
       <c r="T881" s="1"/>
     </row>
-    <row r="882" spans="1:20">
+    <row r="882" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="1"/>
@@ -20272,7 +20285,7 @@
       <c r="S882" s="1"/>
       <c r="T882" s="1"/>
     </row>
-    <row r="883" spans="1:20">
+    <row r="883" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="1"/>
@@ -20294,7 +20307,7 @@
       <c r="S883" s="1"/>
       <c r="T883" s="1"/>
     </row>
-    <row r="884" spans="1:20">
+    <row r="884" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="1"/>
@@ -20316,7 +20329,7 @@
       <c r="S884" s="1"/>
       <c r="T884" s="1"/>
     </row>
-    <row r="885" spans="1:20">
+    <row r="885" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="1"/>
@@ -20338,7 +20351,7 @@
       <c r="S885" s="1"/>
       <c r="T885" s="1"/>
     </row>
-    <row r="886" spans="1:20">
+    <row r="886" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="1"/>
@@ -20360,7 +20373,7 @@
       <c r="S886" s="1"/>
       <c r="T886" s="1"/>
     </row>
-    <row r="887" spans="1:20">
+    <row r="887" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="1"/>
@@ -20382,7 +20395,7 @@
       <c r="S887" s="1"/>
       <c r="T887" s="1"/>
     </row>
-    <row r="888" spans="1:20">
+    <row r="888" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="1"/>
@@ -20404,7 +20417,7 @@
       <c r="S888" s="1"/>
       <c r="T888" s="1"/>
     </row>
-    <row r="889" spans="1:20">
+    <row r="889" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="1"/>
@@ -20426,7 +20439,7 @@
       <c r="S889" s="1"/>
       <c r="T889" s="1"/>
     </row>
-    <row r="890" spans="1:20">
+    <row r="890" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="1"/>
@@ -20448,7 +20461,7 @@
       <c r="S890" s="1"/>
       <c r="T890" s="1"/>
     </row>
-    <row r="891" spans="1:20">
+    <row r="891" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="1"/>
@@ -20470,7 +20483,7 @@
       <c r="S891" s="1"/>
       <c r="T891" s="1"/>
     </row>
-    <row r="892" spans="1:20">
+    <row r="892" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
       <c r="C892" s="1"/>
@@ -20492,7 +20505,7 @@
       <c r="S892" s="1"/>
       <c r="T892" s="1"/>
     </row>
-    <row r="893" spans="1:20">
+    <row r="893" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
       <c r="C893" s="1"/>
@@ -20514,7 +20527,7 @@
       <c r="S893" s="1"/>
       <c r="T893" s="1"/>
     </row>
-    <row r="894" spans="1:20">
+    <row r="894" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
       <c r="C894" s="1"/>
@@ -20536,7 +20549,7 @@
       <c r="S894" s="1"/>
       <c r="T894" s="1"/>
     </row>
-    <row r="895" spans="1:20">
+    <row r="895" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
       <c r="C895" s="1"/>
@@ -20558,7 +20571,7 @@
       <c r="S895" s="1"/>
       <c r="T895" s="1"/>
     </row>
-    <row r="896" spans="1:20">
+    <row r="896" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
       <c r="C896" s="1"/>
@@ -20580,7 +20593,7 @@
       <c r="S896" s="1"/>
       <c r="T896" s="1"/>
     </row>
-    <row r="897" spans="1:20">
+    <row r="897" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
       <c r="C897" s="1"/>
@@ -20602,7 +20615,7 @@
       <c r="S897" s="1"/>
       <c r="T897" s="1"/>
     </row>
-    <row r="898" spans="1:20">
+    <row r="898" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
       <c r="C898" s="1"/>
@@ -20624,7 +20637,7 @@
       <c r="S898" s="1"/>
       <c r="T898" s="1"/>
     </row>
-    <row r="899" spans="1:20">
+    <row r="899" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
       <c r="C899" s="1"/>
@@ -20646,7 +20659,7 @@
       <c r="S899" s="1"/>
       <c r="T899" s="1"/>
     </row>
-    <row r="900" spans="1:20">
+    <row r="900" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
       <c r="C900" s="1"/>
@@ -20668,7 +20681,7 @@
       <c r="S900" s="1"/>
       <c r="T900" s="1"/>
     </row>
-    <row r="901" spans="1:20">
+    <row r="901" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
       <c r="C901" s="1"/>
@@ -20690,7 +20703,7 @@
       <c r="S901" s="1"/>
       <c r="T901" s="1"/>
     </row>
-    <row r="902" spans="1:20">
+    <row r="902" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
       <c r="C902" s="1"/>
@@ -20712,7 +20725,7 @@
       <c r="S902" s="1"/>
       <c r="T902" s="1"/>
     </row>
-    <row r="903" spans="1:20">
+    <row r="903" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
       <c r="C903" s="1"/>
@@ -20734,7 +20747,7 @@
       <c r="S903" s="1"/>
       <c r="T903" s="1"/>
     </row>
-    <row r="904" spans="1:20">
+    <row r="904" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
       <c r="C904" s="1"/>
@@ -20756,7 +20769,7 @@
       <c r="S904" s="1"/>
       <c r="T904" s="1"/>
     </row>
-    <row r="905" spans="1:20">
+    <row r="905" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
       <c r="C905" s="1"/>
@@ -20778,7 +20791,7 @@
       <c r="S905" s="1"/>
       <c r="T905" s="1"/>
     </row>
-    <row r="906" spans="1:20">
+    <row r="906" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
       <c r="C906" s="1"/>
@@ -20800,7 +20813,7 @@
       <c r="S906" s="1"/>
       <c r="T906" s="1"/>
     </row>
-    <row r="907" spans="1:20">
+    <row r="907" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
       <c r="C907" s="1"/>
@@ -20822,7 +20835,7 @@
       <c r="S907" s="1"/>
       <c r="T907" s="1"/>
     </row>
-    <row r="908" spans="1:20">
+    <row r="908" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
       <c r="C908" s="1"/>
@@ -20844,7 +20857,7 @@
       <c r="S908" s="1"/>
       <c r="T908" s="1"/>
     </row>
-    <row r="909" spans="1:20">
+    <row r="909" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
       <c r="C909" s="1"/>
@@ -20866,7 +20879,7 @@
       <c r="S909" s="1"/>
       <c r="T909" s="1"/>
     </row>
-    <row r="910" spans="1:20">
+    <row r="910" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
       <c r="C910" s="1"/>
@@ -20888,7 +20901,7 @@
       <c r="S910" s="1"/>
       <c r="T910" s="1"/>
     </row>
-    <row r="911" spans="1:20">
+    <row r="911" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
       <c r="C911" s="1"/>
@@ -20910,7 +20923,7 @@
       <c r="S911" s="1"/>
       <c r="T911" s="1"/>
     </row>
-    <row r="912" spans="1:20">
+    <row r="912" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
       <c r="C912" s="1"/>
@@ -20932,7 +20945,7 @@
       <c r="S912" s="1"/>
       <c r="T912" s="1"/>
     </row>
-    <row r="913" spans="1:20">
+    <row r="913" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
       <c r="C913" s="1"/>
@@ -20954,7 +20967,7 @@
       <c r="S913" s="1"/>
       <c r="T913" s="1"/>
     </row>
-    <row r="914" spans="1:20">
+    <row r="914" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
       <c r="C914" s="1"/>
@@ -20976,7 +20989,7 @@
       <c r="S914" s="1"/>
       <c r="T914" s="1"/>
     </row>
-    <row r="915" spans="1:20">
+    <row r="915" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
       <c r="C915" s="1"/>
@@ -20998,7 +21011,7 @@
       <c r="S915" s="1"/>
       <c r="T915" s="1"/>
     </row>
-    <row r="916" spans="1:20">
+    <row r="916" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
       <c r="C916" s="1"/>
@@ -21020,7 +21033,7 @@
       <c r="S916" s="1"/>
       <c r="T916" s="1"/>
     </row>
-    <row r="917" spans="1:20">
+    <row r="917" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
       <c r="C917" s="1"/>
@@ -21042,7 +21055,7 @@
       <c r="S917" s="1"/>
       <c r="T917" s="1"/>
     </row>
-    <row r="918" spans="1:20">
+    <row r="918" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
       <c r="C918" s="1"/>
@@ -21064,7 +21077,7 @@
       <c r="S918" s="1"/>
       <c r="T918" s="1"/>
     </row>
-    <row r="919" spans="1:20">
+    <row r="919" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
       <c r="C919" s="1"/>
@@ -21086,7 +21099,7 @@
       <c r="S919" s="1"/>
       <c r="T919" s="1"/>
     </row>
-    <row r="920" spans="1:20">
+    <row r="920" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
       <c r="C920" s="1"/>
@@ -21108,7 +21121,7 @@
       <c r="S920" s="1"/>
       <c r="T920" s="1"/>
     </row>
-    <row r="921" spans="1:20">
+    <row r="921" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A921" s="1"/>
       <c r="B921" s="1"/>
       <c r="C921" s="1"/>
@@ -21130,7 +21143,7 @@
       <c r="S921" s="1"/>
       <c r="T921" s="1"/>
     </row>
-    <row r="922" spans="1:20">
+    <row r="922" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A922" s="1"/>
       <c r="B922" s="1"/>
       <c r="C922" s="1"/>
@@ -21152,7 +21165,7 @@
       <c r="S922" s="1"/>
       <c r="T922" s="1"/>
     </row>
-    <row r="923" spans="1:20">
+    <row r="923" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A923" s="1"/>
       <c r="B923" s="1"/>
       <c r="C923" s="1"/>
@@ -21174,7 +21187,7 @@
       <c r="S923" s="1"/>
       <c r="T923" s="1"/>
     </row>
-    <row r="924" spans="1:20">
+    <row r="924" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A924" s="1"/>
       <c r="B924" s="1"/>
       <c r="C924" s="1"/>
@@ -21196,7 +21209,7 @@
       <c r="S924" s="1"/>
       <c r="T924" s="1"/>
     </row>
-    <row r="925" spans="1:20">
+    <row r="925" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A925" s="1"/>
       <c r="B925" s="1"/>
       <c r="C925" s="1"/>
@@ -21218,7 +21231,7 @@
       <c r="S925" s="1"/>
       <c r="T925" s="1"/>
     </row>
-    <row r="926" spans="1:20">
+    <row r="926" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A926" s="1"/>
       <c r="B926" s="1"/>
       <c r="C926" s="1"/>
@@ -21240,7 +21253,7 @@
       <c r="S926" s="1"/>
       <c r="T926" s="1"/>
     </row>
-    <row r="927" spans="1:20">
+    <row r="927" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A927" s="1"/>
       <c r="B927" s="1"/>
       <c r="C927" s="1"/>
@@ -21262,7 +21275,7 @@
       <c r="S927" s="1"/>
       <c r="T927" s="1"/>
     </row>
-    <row r="928" spans="1:20">
+    <row r="928" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A928" s="1"/>
       <c r="B928" s="1"/>
       <c r="C928" s="1"/>
@@ -21284,7 +21297,7 @@
       <c r="S928" s="1"/>
       <c r="T928" s="1"/>
     </row>
-    <row r="929" spans="1:20">
+    <row r="929" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A929" s="1"/>
       <c r="B929" s="1"/>
       <c r="C929" s="1"/>
@@ -21306,7 +21319,7 @@
       <c r="S929" s="1"/>
       <c r="T929" s="1"/>
     </row>
-    <row r="930" spans="1:20">
+    <row r="930" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A930" s="1"/>
       <c r="B930" s="1"/>
       <c r="C930" s="1"/>
@@ -21328,7 +21341,7 @@
       <c r="S930" s="1"/>
       <c r="T930" s="1"/>
     </row>
-    <row r="931" spans="1:20">
+    <row r="931" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A931" s="1"/>
       <c r="B931" s="1"/>
       <c r="C931" s="1"/>
@@ -21350,7 +21363,7 @@
       <c r="S931" s="1"/>
       <c r="T931" s="1"/>
     </row>
-    <row r="932" spans="1:20">
+    <row r="932" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A932" s="1"/>
       <c r="B932" s="1"/>
       <c r="C932" s="1"/>
@@ -21372,7 +21385,7 @@
       <c r="S932" s="1"/>
       <c r="T932" s="1"/>
     </row>
-    <row r="933" spans="1:20">
+    <row r="933" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A933" s="1"/>
       <c r="B933" s="1"/>
       <c r="C933" s="1"/>
@@ -21394,7 +21407,7 @@
       <c r="S933" s="1"/>
       <c r="T933" s="1"/>
     </row>
-    <row r="934" spans="1:20">
+    <row r="934" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A934" s="1"/>
       <c r="B934" s="1"/>
       <c r="C934" s="1"/>
@@ -21416,7 +21429,7 @@
       <c r="S934" s="1"/>
       <c r="T934" s="1"/>
     </row>
-    <row r="935" spans="1:20">
+    <row r="935" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A935" s="1"/>
       <c r="B935" s="1"/>
       <c r="C935" s="1"/>
@@ -21438,7 +21451,7 @@
       <c r="S935" s="1"/>
       <c r="T935" s="1"/>
     </row>
-    <row r="936" spans="1:20">
+    <row r="936" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A936" s="1"/>
       <c r="B936" s="1"/>
       <c r="C936" s="1"/>
@@ -21460,7 +21473,7 @@
       <c r="S936" s="1"/>
       <c r="T936" s="1"/>
     </row>
-    <row r="937" spans="1:20">
+    <row r="937" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A937" s="1"/>
       <c r="B937" s="1"/>
       <c r="C937" s="1"/>
@@ -21482,7 +21495,7 @@
       <c r="S937" s="1"/>
       <c r="T937" s="1"/>
     </row>
-    <row r="938" spans="1:20">
+    <row r="938" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A938" s="1"/>
       <c r="B938" s="1"/>
       <c r="C938" s="1"/>
@@ -21504,7 +21517,7 @@
       <c r="S938" s="1"/>
       <c r="T938" s="1"/>
     </row>
-    <row r="939" spans="1:20">
+    <row r="939" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A939" s="1"/>
       <c r="B939" s="1"/>
       <c r="C939" s="1"/>
@@ -21526,7 +21539,7 @@
       <c r="S939" s="1"/>
       <c r="T939" s="1"/>
     </row>
-    <row r="940" spans="1:20">
+    <row r="940" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A940" s="1"/>
       <c r="B940" s="1"/>
       <c r="C940" s="1"/>
@@ -21548,7 +21561,7 @@
       <c r="S940" s="1"/>
       <c r="T940" s="1"/>
     </row>
-    <row r="941" spans="1:20">
+    <row r="941" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A941" s="1"/>
       <c r="B941" s="1"/>
       <c r="C941" s="1"/>
@@ -21570,7 +21583,7 @@
       <c r="S941" s="1"/>
       <c r="T941" s="1"/>
     </row>
-    <row r="942" spans="1:20">
+    <row r="942" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A942" s="1"/>
       <c r="B942" s="1"/>
       <c r="C942" s="1"/>
@@ -21592,7 +21605,7 @@
       <c r="S942" s="1"/>
       <c r="T942" s="1"/>
     </row>
-    <row r="943" spans="1:20">
+    <row r="943" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A943" s="1"/>
       <c r="B943" s="1"/>
       <c r="C943" s="1"/>
@@ -21614,7 +21627,7 @@
       <c r="S943" s="1"/>
       <c r="T943" s="1"/>
     </row>
-    <row r="944" spans="1:20">
+    <row r="944" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A944" s="1"/>
       <c r="B944" s="1"/>
       <c r="C944" s="1"/>
@@ -21636,7 +21649,7 @@
       <c r="S944" s="1"/>
       <c r="T944" s="1"/>
     </row>
-    <row r="945" spans="1:20">
+    <row r="945" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A945" s="1"/>
       <c r="B945" s="1"/>
       <c r="C945" s="1"/>
@@ -21658,7 +21671,7 @@
       <c r="S945" s="1"/>
       <c r="T945" s="1"/>
     </row>
-    <row r="946" spans="1:20">
+    <row r="946" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A946" s="1"/>
       <c r="B946" s="1"/>
       <c r="C946" s="1"/>
@@ -21680,7 +21693,7 @@
       <c r="S946" s="1"/>
       <c r="T946" s="1"/>
     </row>
-    <row r="947" spans="1:20">
+    <row r="947" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A947" s="1"/>
       <c r="B947" s="1"/>
       <c r="C947" s="1"/>
@@ -21702,7 +21715,7 @@
       <c r="S947" s="1"/>
       <c r="T947" s="1"/>
     </row>
-    <row r="948" spans="1:20">
+    <row r="948" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A948" s="1"/>
       <c r="B948" s="1"/>
       <c r="C948" s="1"/>
@@ -21724,7 +21737,7 @@
       <c r="S948" s="1"/>
       <c r="T948" s="1"/>
     </row>
-    <row r="949" spans="1:20">
+    <row r="949" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A949" s="1"/>
       <c r="B949" s="1"/>
       <c r="C949" s="1"/>
@@ -21746,7 +21759,7 @@
       <c r="S949" s="1"/>
       <c r="T949" s="1"/>
     </row>
-    <row r="950" spans="1:20">
+    <row r="950" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A950" s="1"/>
       <c r="B950" s="1"/>
       <c r="C950" s="1"/>
@@ -21768,7 +21781,7 @@
       <c r="S950" s="1"/>
       <c r="T950" s="1"/>
     </row>
-    <row r="951" spans="1:20">
+    <row r="951" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A951" s="1"/>
       <c r="B951" s="1"/>
       <c r="C951" s="1"/>
@@ -21790,7 +21803,7 @@
       <c r="S951" s="1"/>
       <c r="T951" s="1"/>
     </row>
-    <row r="952" spans="1:20">
+    <row r="952" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A952" s="1"/>
       <c r="B952" s="1"/>
       <c r="C952" s="1"/>
@@ -21812,7 +21825,7 @@
       <c r="S952" s="1"/>
       <c r="T952" s="1"/>
     </row>
-    <row r="953" spans="1:20">
+    <row r="953" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A953" s="1"/>
       <c r="B953" s="1"/>
       <c r="C953" s="1"/>
@@ -21834,7 +21847,7 @@
       <c r="S953" s="1"/>
       <c r="T953" s="1"/>
     </row>
-    <row r="954" spans="1:20">
+    <row r="954" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A954" s="1"/>
       <c r="B954" s="1"/>
       <c r="C954" s="1"/>
@@ -21856,7 +21869,7 @@
       <c r="S954" s="1"/>
       <c r="T954" s="1"/>
     </row>
-    <row r="955" spans="1:20">
+    <row r="955" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A955" s="1"/>
       <c r="B955" s="1"/>
       <c r="C955" s="1"/>
@@ -21878,7 +21891,7 @@
       <c r="S955" s="1"/>
       <c r="T955" s="1"/>
     </row>
-    <row r="956" spans="1:20">
+    <row r="956" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A956" s="1"/>
       <c r="B956" s="1"/>
       <c r="C956" s="1"/>
@@ -21900,7 +21913,7 @@
       <c r="S956" s="1"/>
       <c r="T956" s="1"/>
     </row>
-    <row r="957" spans="1:20">
+    <row r="957" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A957" s="1"/>
       <c r="B957" s="1"/>
       <c r="C957" s="1"/>
@@ -21922,7 +21935,7 @@
       <c r="S957" s="1"/>
       <c r="T957" s="1"/>
     </row>
-    <row r="958" spans="1:20">
+    <row r="958" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A958" s="1"/>
       <c r="B958" s="1"/>
       <c r="C958" s="1"/>
@@ -21944,7 +21957,7 @@
       <c r="S958" s="1"/>
       <c r="T958" s="1"/>
     </row>
-    <row r="959" spans="1:20">
+    <row r="959" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A959" s="1"/>
       <c r="B959" s="1"/>
       <c r="C959" s="1"/>
@@ -21966,7 +21979,7 @@
       <c r="S959" s="1"/>
       <c r="T959" s="1"/>
     </row>
-    <row r="960" spans="1:20">
+    <row r="960" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A960" s="1"/>
       <c r="B960" s="1"/>
       <c r="C960" s="1"/>
@@ -21988,7 +22001,7 @@
       <c r="S960" s="1"/>
       <c r="T960" s="1"/>
     </row>
-    <row r="961" spans="1:20">
+    <row r="961" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A961" s="1"/>
       <c r="B961" s="1"/>
       <c r="C961" s="1"/>
@@ -22010,7 +22023,7 @@
       <c r="S961" s="1"/>
       <c r="T961" s="1"/>
     </row>
-    <row r="962" spans="1:20">
+    <row r="962" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A962" s="1"/>
       <c r="B962" s="1"/>
       <c r="C962" s="1"/>
@@ -22032,7 +22045,7 @@
       <c r="S962" s="1"/>
       <c r="T962" s="1"/>
     </row>
-    <row r="963" spans="1:20">
+    <row r="963" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A963" s="1"/>
       <c r="B963" s="1"/>
       <c r="C963" s="1"/>
@@ -22054,7 +22067,7 @@
       <c r="S963" s="1"/>
       <c r="T963" s="1"/>
     </row>
-    <row r="964" spans="1:20">
+    <row r="964" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A964" s="1"/>
       <c r="B964" s="1"/>
       <c r="C964" s="1"/>
@@ -22076,7 +22089,7 @@
       <c r="S964" s="1"/>
       <c r="T964" s="1"/>
     </row>
-    <row r="965" spans="1:20">
+    <row r="965" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A965" s="1"/>
       <c r="B965" s="1"/>
       <c r="C965" s="1"/>
@@ -22098,7 +22111,7 @@
       <c r="S965" s="1"/>
       <c r="T965" s="1"/>
     </row>
-    <row r="966" spans="1:20">
+    <row r="966" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A966" s="1"/>
       <c r="B966" s="1"/>
       <c r="C966" s="1"/>
@@ -22120,7 +22133,7 @@
       <c r="S966" s="1"/>
       <c r="T966" s="1"/>
     </row>
-    <row r="967" spans="1:20">
+    <row r="967" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A967" s="1"/>
       <c r="B967" s="1"/>
       <c r="C967" s="1"/>
@@ -22142,7 +22155,7 @@
       <c r="S967" s="1"/>
       <c r="T967" s="1"/>
     </row>
-    <row r="968" spans="1:20">
+    <row r="968" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A968" s="1"/>
       <c r="B968" s="1"/>
       <c r="C968" s="1"/>
@@ -22164,7 +22177,7 @@
       <c r="S968" s="1"/>
       <c r="T968" s="1"/>
     </row>
-    <row r="969" spans="1:20">
+    <row r="969" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A969" s="1"/>
       <c r="B969" s="1"/>
       <c r="C969" s="1"/>
@@ -22186,7 +22199,7 @@
       <c r="S969" s="1"/>
       <c r="T969" s="1"/>
     </row>
-    <row r="970" spans="1:20">
+    <row r="970" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A970" s="1"/>
       <c r="B970" s="1"/>
       <c r="C970" s="1"/>
@@ -22208,7 +22221,7 @@
       <c r="S970" s="1"/>
       <c r="T970" s="1"/>
     </row>
-    <row r="971" spans="1:20">
+    <row r="971" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A971" s="1"/>
       <c r="B971" s="1"/>
       <c r="C971" s="1"/>
@@ -22230,7 +22243,7 @@
       <c r="S971" s="1"/>
       <c r="T971" s="1"/>
     </row>
-    <row r="972" spans="1:20">
+    <row r="972" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A972" s="1"/>
       <c r="B972" s="1"/>
       <c r="C972" s="1"/>
@@ -22252,7 +22265,7 @@
       <c r="S972" s="1"/>
       <c r="T972" s="1"/>
     </row>
-    <row r="973" spans="1:20">
+    <row r="973" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A973" s="1"/>
       <c r="B973" s="1"/>
       <c r="C973" s="1"/>
@@ -22274,7 +22287,7 @@
       <c r="S973" s="1"/>
       <c r="T973" s="1"/>
     </row>
-    <row r="974" spans="1:20">
+    <row r="974" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A974" s="1"/>
       <c r="B974" s="1"/>
       <c r="C974" s="1"/>
@@ -22296,7 +22309,7 @@
       <c r="S974" s="1"/>
       <c r="T974" s="1"/>
     </row>
-    <row r="975" spans="1:20">
+    <row r="975" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A975" s="1"/>
       <c r="B975" s="1"/>
       <c r="C975" s="1"/>
@@ -22318,7 +22331,7 @@
       <c r="S975" s="1"/>
       <c r="T975" s="1"/>
     </row>
-    <row r="976" spans="1:20">
+    <row r="976" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A976" s="1"/>
       <c r="B976" s="1"/>
       <c r="C976" s="1"/>
@@ -22340,7 +22353,7 @@
       <c r="S976" s="1"/>
       <c r="T976" s="1"/>
     </row>
-    <row r="977" spans="1:20">
+    <row r="977" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A977" s="1"/>
       <c r="B977" s="1"/>
       <c r="C977" s="1"/>
@@ -22362,7 +22375,7 @@
       <c r="S977" s="1"/>
       <c r="T977" s="1"/>
     </row>
-    <row r="978" spans="1:20">
+    <row r="978" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A978" s="1"/>
       <c r="B978" s="1"/>
       <c r="C978" s="1"/>
@@ -22384,7 +22397,7 @@
       <c r="S978" s="1"/>
       <c r="T978" s="1"/>
     </row>
-    <row r="979" spans="1:20">
+    <row r="979" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A979" s="1"/>
       <c r="B979" s="1"/>
       <c r="C979" s="1"/>
@@ -22406,7 +22419,7 @@
       <c r="S979" s="1"/>
       <c r="T979" s="1"/>
     </row>
-    <row r="980" spans="1:20">
+    <row r="980" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A980" s="1"/>
       <c r="B980" s="1"/>
       <c r="C980" s="1"/>
@@ -22428,7 +22441,7 @@
       <c r="S980" s="1"/>
       <c r="T980" s="1"/>
     </row>
-    <row r="981" spans="1:20">
+    <row r="981" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A981" s="1"/>
       <c r="B981" s="1"/>
       <c r="C981" s="1"/>
@@ -22450,7 +22463,7 @@
       <c r="S981" s="1"/>
       <c r="T981" s="1"/>
     </row>
-    <row r="982" spans="1:20">
+    <row r="982" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A982" s="1"/>
       <c r="B982" s="1"/>
       <c r="C982" s="1"/>
@@ -22472,7 +22485,7 @@
       <c r="S982" s="1"/>
       <c r="T982" s="1"/>
     </row>
-    <row r="983" spans="1:20">
+    <row r="983" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A983" s="1"/>
       <c r="B983" s="1"/>
       <c r="C983" s="1"/>
@@ -22494,7 +22507,7 @@
       <c r="S983" s="1"/>
       <c r="T983" s="1"/>
     </row>
-    <row r="984" spans="1:20">
+    <row r="984" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A984" s="1"/>
       <c r="B984" s="1"/>
       <c r="C984" s="1"/>
@@ -22516,7 +22529,7 @@
       <c r="S984" s="1"/>
       <c r="T984" s="1"/>
     </row>
-    <row r="985" spans="1:20">
+    <row r="985" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A985" s="1"/>
       <c r="B985" s="1"/>
       <c r="C985" s="1"/>
@@ -22538,7 +22551,7 @@
       <c r="S985" s="1"/>
       <c r="T985" s="1"/>
     </row>
-    <row r="986" spans="1:20">
+    <row r="986" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A986" s="1"/>
       <c r="B986" s="1"/>
       <c r="C986" s="1"/>
@@ -22560,7 +22573,7 @@
       <c r="S986" s="1"/>
       <c r="T986" s="1"/>
     </row>
-    <row r="987" spans="1:20">
+    <row r="987" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A987" s="1"/>
       <c r="B987" s="1"/>
       <c r="C987" s="1"/>
@@ -22582,7 +22595,7 @@
       <c r="S987" s="1"/>
       <c r="T987" s="1"/>
     </row>
-    <row r="988" spans="1:20">
+    <row r="988" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A988" s="1"/>
       <c r="B988" s="1"/>
       <c r="C988" s="1"/>
@@ -22604,7 +22617,7 @@
       <c r="S988" s="1"/>
       <c r="T988" s="1"/>
     </row>
-    <row r="989" spans="1:20">
+    <row r="989" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A989" s="1"/>
       <c r="B989" s="1"/>
       <c r="C989" s="1"/>
@@ -22626,7 +22639,7 @@
       <c r="S989" s="1"/>
       <c r="T989" s="1"/>
     </row>
-    <row r="990" spans="1:20">
+    <row r="990" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A990" s="1"/>
       <c r="B990" s="1"/>
       <c r="C990" s="1"/>
@@ -22648,7 +22661,7 @@
       <c r="S990" s="1"/>
       <c r="T990" s="1"/>
     </row>
-    <row r="991" spans="1:20">
+    <row r="991" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A991" s="1"/>
       <c r="B991" s="1"/>
       <c r="C991" s="1"/>
@@ -22670,7 +22683,7 @@
       <c r="S991" s="1"/>
       <c r="T991" s="1"/>
     </row>
-    <row r="992" spans="1:20">
+    <row r="992" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A992" s="1"/>
       <c r="B992" s="1"/>
       <c r="C992" s="1"/>
@@ -22692,7 +22705,7 @@
       <c r="S992" s="1"/>
       <c r="T992" s="1"/>
     </row>
-    <row r="993" spans="1:20">
+    <row r="993" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A993" s="1"/>
       <c r="B993" s="1"/>
       <c r="C993" s="1"/>
@@ -22714,7 +22727,7 @@
       <c r="S993" s="1"/>
       <c r="T993" s="1"/>
     </row>
-    <row r="994" spans="1:20">
+    <row r="994" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A994" s="1"/>
       <c r="B994" s="1"/>
       <c r="C994" s="1"/>
@@ -22736,7 +22749,7 @@
       <c r="S994" s="1"/>
       <c r="T994" s="1"/>
     </row>
-    <row r="995" spans="1:20">
+    <row r="995" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A995" s="1"/>
       <c r="B995" s="1"/>
       <c r="C995" s="1"/>
@@ -22758,7 +22771,7 @@
       <c r="S995" s="1"/>
       <c r="T995" s="1"/>
     </row>
-    <row r="996" spans="1:20">
+    <row r="996" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A996" s="1"/>
       <c r="B996" s="1"/>
       <c r="C996" s="1"/>
@@ -22780,7 +22793,7 @@
       <c r="S996" s="1"/>
       <c r="T996" s="1"/>
     </row>
-    <row r="997" spans="1:20">
+    <row r="997" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A997" s="1"/>
       <c r="B997" s="1"/>
       <c r="C997" s="1"/>
@@ -22802,7 +22815,7 @@
       <c r="S997" s="1"/>
       <c r="T997" s="1"/>
     </row>
-    <row r="998" spans="1:20">
+    <row r="998" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A998" s="1"/>
       <c r="B998" s="1"/>
       <c r="C998" s="1"/>
@@ -22824,7 +22837,7 @@
       <c r="S998" s="1"/>
       <c r="T998" s="1"/>
     </row>
-    <row r="999" spans="1:20">
+    <row r="999" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A999" s="1"/>
       <c r="B999" s="1"/>
       <c r="C999" s="1"/>
@@ -22846,7 +22859,7 @@
       <c r="S999" s="1"/>
       <c r="T999" s="1"/>
     </row>
-    <row r="1000" spans="1:20">
+    <row r="1000" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1000" s="1"/>
       <c r="B1000" s="1"/>
       <c r="C1000" s="1"/>
